--- a/Doo-Doc/Nueva Version Victus/MuestreoDatos/ConjuntosResidenciales Muestro Datos.xlsx
+++ b/Doo-Doc/Nueva Version Victus/MuestreoDatos/ConjuntosResidenciales Muestro Datos.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Music\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD59E46-BC7D-4A8F-88B9-C3C96E5763F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D74AB84A-B165-41E5-BAD9-CF6557DE9E87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{46B52760-6E94-4759-BDEF-A2400BC5A0BB}"/>
+    <workbookView xWindow="15855" yWindow="1725" windowWidth="20220" windowHeight="15345" activeTab="5" xr2:uid="{46B52760-6E94-4759-BDEF-A2400BC5A0BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Objetos de dominio" sheetId="1" r:id="rId1"/>
     <sheet name="Administrador" sheetId="12" r:id="rId2"/>
     <sheet name="ConjuntoResidencial" sheetId="2" r:id="rId3"/>
     <sheet name="Zonainmueble" sheetId="15" r:id="rId4"/>
-    <sheet name="ZonaComun" sheetId="4" r:id="rId5"/>
-    <sheet name="Inmueble" sheetId="16" r:id="rId6"/>
+    <sheet name="Inmueble" sheetId="16" r:id="rId5"/>
+    <sheet name="ZonaComun" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="77">
   <si>
     <t>Nombre</t>
   </si>
@@ -172,15 +172,6 @@
     <t>Este dato representa el número de contacto de un administrador.</t>
   </si>
   <si>
-    <t>tiempoUsoDia</t>
-  </si>
-  <si>
-    <t>1 hora</t>
-  </si>
-  <si>
-    <t>2 horas</t>
-  </si>
-  <si>
     <t>piscinaAdultos</t>
   </si>
   <si>
@@ -266,13 +257,28 @@
   </si>
   <si>
     <t>Casa</t>
+  </si>
+  <si>
+    <t>Es un dato que representa cuantos minutos son permitidos por uso en un dia la zona común</t>
+  </si>
+  <si>
+    <t>tiempoUso</t>
+  </si>
+  <si>
+    <t>unidadDeTiempoUso</t>
+  </si>
+  <si>
+    <t>Minutos</t>
+  </si>
+  <si>
+    <t>Hora</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -312,6 +318,28 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="16"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -371,7 +399,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -393,14 +421,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -742,17 +782,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3601F120-B689-4608-A7AB-FD2F4140FEAD}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" customWidth="1"/>
-    <col min="2" max="2" width="58.33203125" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" customWidth="1"/>
+    <col min="2" max="2" width="58.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -760,15 +800,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -776,28 +816,28 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -817,28 +857,28 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="23.88671875" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="23.88671875" customWidth="1"/>
+    <col min="6" max="6" width="23.85546875" customWidth="1"/>
     <col min="7" max="7" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>40</v>
       </c>
@@ -855,7 +895,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -872,27 +912,27 @@
         <v>27</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G3" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D4" s="12">
         <v>3053456459</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F4" s="12">
         <v>123456</v>
@@ -902,21 +942,21 @@
         <v>Carlos-carlos@gmail.com</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D5" s="1">
         <v>3584418688</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F5" s="1">
         <v>654321</v>
@@ -926,7 +966,7 @@
         <v>Sara-sara@gmail.com</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>3</v>
       </c>
@@ -959,28 +999,28 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="4" width="21.6640625" customWidth="1"/>
+    <col min="2" max="4" width="21.7109375" customWidth="1"/>
     <col min="5" max="6" width="36" customWidth="1"/>
     <col min="7" max="7" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>15</v>
       </c>
@@ -1001,7 +1041,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1017,14 +1057,14 @@
       <c r="E3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>1</v>
       </c>
@@ -1040,32 +1080,32 @@
       <c r="E4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="17" t="s">
-        <v>58</v>
+      <c r="F4" s="15" t="s">
+        <v>55</v>
       </c>
       <c r="G4" s="10" t="str">
         <f>_xlfn.CONCAT(A4,"-",B4)</f>
         <v>1-Forest apartamentos</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D5" s="9">
         <v>3057477789</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>59</v>
+        <v>48</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>56</v>
       </c>
       <c r="G5" s="10" t="str">
         <f>_xlfn.CONCAT(A5,"-",B5)</f>
@@ -1080,9 +1120,10 @@
   <hyperlinks>
     <hyperlink ref="A1" location="Objetos de dominio!A1" display="Objetos de dominio!A1" xr:uid="{D64C3258-0F3E-431B-9317-C8728CDAC55D}"/>
     <hyperlink ref="G1" location="Objetos de dominio!A1" display="Objetos de dominio!A1" xr:uid="{AFF80FE2-F73C-488E-9508-D9E1A9B6135D}"/>
-    <hyperlink ref="F4" r:id="rId1" xr:uid="{7D168C2A-3F1A-4D3F-A05A-5350E0C9CC3B}"/>
-    <hyperlink ref="F5" r:id="rId2" xr:uid="{DC6D880C-E01A-4A61-9B2D-31FCC8E19585}"/>
+    <hyperlink ref="F4" location="Administrador!A4" display="Carlos-carlos@gmail.com" xr:uid="{7D168C2A-3F1A-4D3F-A05A-5350E0C9CC3B}"/>
+    <hyperlink ref="F5" location="Administrador!A5" display="Sara-sara@gmail.com" xr:uid="{DC6D880C-E01A-4A61-9B2D-31FCC8E19585}"/>
     <hyperlink ref="A1:D1" location="'Objetos de dominio'!A1" display="&lt;&lt;&lt;&lt;&lt;&lt; Volver al inicio" xr:uid="{E47C9477-04BF-4359-AA4E-108F5F557D82}"/>
+    <hyperlink ref="F3" location="Administrador!A1" display="Administrador" xr:uid="{8573C9AA-E4AB-4C12-80E7-A396F426EDA8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1093,27 +1134,27 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" customWidth="1"/>
-    <col min="5" max="5" width="37.109375" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" customWidth="1"/>
+    <col min="5" max="5" width="37.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
       <c r="E1" s="6"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>39</v>
       </c>
@@ -1130,88 +1171,88 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>48</v>
+      <c r="D4" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="E4" s="10" t="str">
         <f>_xlfn.CONCAT(B4,C4," de ",D4)</f>
         <v>Torre1 de 1-Forest apartamentos</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>48</v>
+      <c r="D5" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="E5" s="10" t="str">
         <f t="shared" ref="E5:E12" si="0">_xlfn.CONCAT(B5,C5," de ",D5)</f>
         <v>Bloque1 de 1-Forest apartamentos</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C6" s="1">
         <v>2</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>48</v>
+      <c r="D6" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="E6" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Torre2 de 1-Forest apartamentos</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C7" s="1">
         <v>2</v>
       </c>
-      <c r="D7" s="1" t="str">
+      <c r="D7" s="3" t="str">
         <f>ConjuntoResidencial!$G$5</f>
         <v>2-Natural</v>
       </c>
@@ -1220,7 +1261,7 @@
         <v>Bloque2 de 2-Natural</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -1232,7 +1273,7 @@
         <v xml:space="preserve"> de </v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -1244,7 +1285,7 @@
         <v xml:space="preserve"> de </v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -1256,7 +1297,7 @@
         <v xml:space="preserve"> de </v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1268,7 +1309,7 @@
         <v xml:space="preserve"> de </v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1280,14 +1321,14 @@
         <v xml:space="preserve"> de </v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1303,222 +1344,41 @@
     <hyperlink ref="E1" location="Objetos de dominio!A1" display="Objetos de dominio!A1" xr:uid="{8A8EFAAB-69AE-45D4-B2F1-EEF0430D8052}"/>
     <hyperlink ref="A1" location="Objetos de dominio!A1" display="Objetos de dominio!A1" xr:uid="{1B8EA9FE-1582-4DE3-BA24-60F10603C197}"/>
     <hyperlink ref="A1:D1" location="'Objetos de dominio'!A1" display="&lt;&lt;&lt;&lt;&lt;&lt; Volver al inicio" xr:uid="{73405957-2E0A-4EC9-845B-165703441F8D}"/>
+    <hyperlink ref="D3" location="ConjuntoResidencial!A1" display="ConjuntoResidencial" xr:uid="{1FF70D16-FFAE-49F5-A324-336831EAEC2F}"/>
+    <hyperlink ref="D4" location="ConjuntoResidencial!A4" display="1-Forest apartamentos" xr:uid="{FE6B8B9A-D67F-410F-9E6F-226B627CD379}"/>
+    <hyperlink ref="D5:D6" location="ConjuntoResidencial!A4" display="1-Forest apartamentos" xr:uid="{26734694-0972-4ADC-AA89-B0972D85EEB6}"/>
+    <hyperlink ref="D7" location="ConjuntoResidencial!A5" display="ConjuntoResidencial!A5" xr:uid="{8C0CBF64-4C4C-4615-84CA-37407A122B1B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F3E3BD9-49ED-471B-BA3A-A84E923CE558}">
-  <dimension ref="A1:I6"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="21.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="27" customWidth="1"/>
-    <col min="5" max="6" width="21.6640625" customWidth="1"/>
-    <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="23.6640625" customWidth="1"/>
-    <col min="9" max="9" width="33.109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9">
-        <v>1</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="15">
-        <v>50</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="9" t="str">
-        <f>ConjuntoResidencial!$G$4</f>
-        <v>1-Forest apartamentos</v>
-      </c>
-      <c r="I4" s="10" t="str">
-        <f>_xlfn.CONCAT(B4,"-",H4)</f>
-        <v>Piscina-1-Forest apartamentos</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>2</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="16">
-        <v>20</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="9" t="str">
-        <f>ConjuntoResidencial!$G$4</f>
-        <v>1-Forest apartamentos</v>
-      </c>
-      <c r="I5" s="10" t="str">
-        <f>_xlfn.CONCAT(B5,"-",H5)</f>
-        <v>Gimnasio-1-Forest apartamentos</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="16">
-        <v>15</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="9" t="str">
-        <f>ConjuntoResidencial!$G$5</f>
-        <v>2-Natural</v>
-      </c>
-      <c r="I6" s="10" t="str">
-        <f>_xlfn.CONCAT(B6,"-",H6)</f>
-        <v>piscinaAdultos-2-Natural</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" location="Objetos de dominio!A1" display="Objetos de dominio!A1" xr:uid="{7B936B1B-E7A7-43AE-939F-38E9A3111C59}"/>
-    <hyperlink ref="B1" location="Objetos de dominio!A1" display="Objetos de dominio!A1" xr:uid="{02A34D39-CC52-4C1F-9BB9-D46B63C023E8}"/>
-    <hyperlink ref="I1" location="Objetos de dominio!A1" display="Objetos de dominio!A1" xr:uid="{6585A7B7-3FD0-4667-99EF-CFCC695BC978}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{488BF9E0-DC4F-43E4-93DE-0EE5B6337FDE}">
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.6640625" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
-    <col min="4" max="4" width="31.44140625" customWidth="1"/>
-    <col min="5" max="5" width="49.44140625" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="4" max="4" width="31.42578125" customWidth="1"/>
+    <col min="5" max="5" width="49.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
       <c r="E1" s="6"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>39</v>
       </c>
@@ -1535,34 +1395,34 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>64</v>
+        <v>69</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C4" s="1">
         <v>102</v>
       </c>
-      <c r="D4" s="9" t="str">
+      <c r="D4" s="3" t="str">
         <f>Zonainmueble!$E$4</f>
         <v>Torre1 de 1-Forest apartamentos</v>
       </c>
@@ -1571,17 +1431,17 @@
         <v>Apartamento '102' de Torre1 de 1-Forest apartamentos</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C5" s="1">
         <v>10</v>
       </c>
-      <c r="D5" s="9" t="str">
+      <c r="D5" s="3" t="str">
         <f>Zonainmueble!$E$5</f>
         <v>Bloque1 de 1-Forest apartamentos</v>
       </c>
@@ -1590,17 +1450,17 @@
         <v>Casa '10' de Bloque1 de 1-Forest apartamentos</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C6" s="1">
         <v>304</v>
       </c>
-      <c r="D6" s="9" t="str">
+      <c r="D6" s="3" t="str">
         <f>Zonainmueble!$E$6</f>
         <v>Torre2 de 1-Forest apartamentos</v>
       </c>
@@ -1609,17 +1469,17 @@
         <v>Apartamento '304' de Torre2 de 1-Forest apartamentos</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C7" s="1">
         <v>11</v>
       </c>
-      <c r="D7" s="1" t="str">
+      <c r="D7" s="3" t="str">
         <f>Zonainmueble!$E$7</f>
         <v>Bloque2 de 2-Natural</v>
       </c>
@@ -1628,7 +1488,7 @@
         <v>Casa '11' de Bloque2 de 2-Natural</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -1640,7 +1500,7 @@
         <v xml:space="preserve"> '' de </v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -1652,7 +1512,7 @@
         <v xml:space="preserve"> '' de </v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -1664,14 +1524,14 @@
         <v xml:space="preserve"> '' de </v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1686,6 +1546,216 @@
   <hyperlinks>
     <hyperlink ref="E1" location="Objetos de dominio!A1" display="Objetos de dominio!A1" xr:uid="{A8F48A27-2433-44D2-97BA-826AC4DBC95A}"/>
     <hyperlink ref="A1" location="'Objetos de dominio'!A1" display="&lt;&lt;&lt;&lt;&lt;&lt; Volver al inicio" xr:uid="{CB67B04C-5FA0-4559-8002-7A3B37D01032}"/>
+    <hyperlink ref="D3" location="Zonainmueble!A1" display="ZonaInmueble" xr:uid="{6C4EDA3B-6DDD-424D-B3BA-1D360364A9ED}"/>
+    <hyperlink ref="D4" location="Zonainmueble!A4" display="Zonainmueble!A4" xr:uid="{AC3177FC-A1BA-4562-9F84-9227AA366BF4}"/>
+    <hyperlink ref="D5" location="Zonainmueble!A5" display="Zonainmueble!A5" xr:uid="{76F4E2D4-EA20-4BEF-B57E-D77BA34B1AE3}"/>
+    <hyperlink ref="D6" location="Zonainmueble!A6" display="Zonainmueble!A6" xr:uid="{0CEA0D8C-B505-47F7-9AB5-A99A020FD431}"/>
+    <hyperlink ref="D7" location="Zonainmueble!A7" display="Zonainmueble!A7" xr:uid="{999A7386-D651-47BD-AAA9-41F3FB052EEF}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F3E3BD9-49ED-471B-BA3A-A84E923CE558}">
+  <dimension ref="A1:J6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="27" customWidth="1"/>
+    <col min="5" max="7" width="21.7109375" customWidth="1"/>
+    <col min="8" max="8" width="15" customWidth="1"/>
+    <col min="9" max="9" width="23.7109375" customWidth="1"/>
+    <col min="10" max="10" width="33.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="16">
+        <v>1</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="17"/>
+      <c r="D4" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="19">
+        <v>50</v>
+      </c>
+      <c r="F4" s="19">
+        <v>60</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="3" t="str">
+        <f>ConjuntoResidencial!$G$4</f>
+        <v>1-Forest apartamentos</v>
+      </c>
+      <c r="J4" s="10" t="str">
+        <f>_xlfn.CONCAT(B4,"-",I4)</f>
+        <v>Piscina-1-Forest apartamentos</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="84" x14ac:dyDescent="0.35">
+      <c r="A5" s="20">
+        <v>2</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="20"/>
+      <c r="D5" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="22">
+        <v>20</v>
+      </c>
+      <c r="F5" s="22">
+        <v>120</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="3" t="str">
+        <f>ConjuntoResidencial!$G$4</f>
+        <v>1-Forest apartamentos</v>
+      </c>
+      <c r="J5" s="10" t="str">
+        <f>_xlfn.CONCAT(B5,"-",I5)</f>
+        <v>Gimnasio-1-Forest apartamentos</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="73.150000000000006" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="20">
+        <v>3</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="20"/>
+      <c r="D6" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="22">
+        <v>15</v>
+      </c>
+      <c r="F6" s="22">
+        <v>1</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="3" t="str">
+        <f>ConjuntoResidencial!$G$5</f>
+        <v>2-Natural</v>
+      </c>
+      <c r="J6" s="10" t="str">
+        <f>_xlfn.CONCAT(B6,"-",I6)</f>
+        <v>piscinaAdultos-2-Natural</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Objetos de dominio!A1" display="Objetos de dominio!A1" xr:uid="{7B936B1B-E7A7-43AE-939F-38E9A3111C59}"/>
+    <hyperlink ref="B1" location="Objetos de dominio!A1" display="Objetos de dominio!A1" xr:uid="{02A34D39-CC52-4C1F-9BB9-D46B63C023E8}"/>
+    <hyperlink ref="J1" location="Objetos de dominio!A1" display="Objetos de dominio!A1" xr:uid="{6585A7B7-3FD0-4667-99EF-CFCC695BC978}"/>
+    <hyperlink ref="I3" location="ConjuntoResidencial!A1" display="ConjuntoResidencial" xr:uid="{44382147-4BE0-4CD3-8A3E-982BD251098B}"/>
+    <hyperlink ref="I4" location="ConjuntoResidencial!A5" display="ConjuntoResidencial!A5" xr:uid="{B8DE4DDD-37E7-4134-B07B-380ED9355EAE}"/>
+    <hyperlink ref="I5" location="ConjuntoResidencial!A5" display="ConjuntoResidencial!A5" xr:uid="{9C185349-1620-4637-ACB0-760A61F04D2F}"/>
+    <hyperlink ref="I6" location="ConjuntoResidencial!A5" display="ConjuntoResidencial!A5" xr:uid="{7582E04B-7A1B-430D-B8C9-B08941E36695}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Doo-Doc/Nueva Version Victus/MuestreoDatos/ConjuntosResidenciales Muestro Datos.xlsx
+++ b/Doo-Doc/Nueva Version Victus/MuestreoDatos/ConjuntosResidenciales Muestro Datos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Music\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uconet-my.sharepoint.com/personal/juan_avendano1956_uco_net_co/Documents/Documents/victus-doc/Doo-Doc/Nueva Version Victus/MuestreoDatos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D74AB84A-B165-41E5-BAD9-CF6557DE9E87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{D74AB84A-B165-41E5-BAD9-CF6557DE9E87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8869C936-CE84-42A3-89AD-9281A90F1BBF}"/>
   <bookViews>
-    <workbookView xWindow="15855" yWindow="1725" windowWidth="20220" windowHeight="15345" activeTab="5" xr2:uid="{46B52760-6E94-4759-BDEF-A2400BC5A0BB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{46B52760-6E94-4759-BDEF-A2400BC5A0BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Objetos de dominio" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="83">
   <si>
     <t>Nombre</t>
   </si>
@@ -97,9 +97,6 @@
     <t>Es un dato que representa el formato de texto de una dirección.</t>
   </si>
   <si>
-    <t>Es un dato que representa el número de contacto de una conjunto residencial</t>
-  </si>
-  <si>
     <t>Es un dato que representa la descripción que tiene el conjunto residencial para ser identificado con palabras.</t>
   </si>
   <si>
@@ -139,9 +136,6 @@
     <t>Usar la maquinaria con toalla y mantener la higiene</t>
   </si>
   <si>
-    <t>No puede haber más de un administrador con el mismo correo electrónico.</t>
-  </si>
-  <si>
     <t>Es un dato que representa al nombre de una zona comun.</t>
   </si>
   <si>
@@ -208,12 +202,6 @@
     <t>sara@gmail.com</t>
   </si>
   <si>
-    <t>Carlos-carlos@gmail.com</t>
-  </si>
-  <si>
-    <t>Sara-sara@gmail.com</t>
-  </si>
-  <si>
     <t>tipoZonaInmueble</t>
   </si>
   <si>
@@ -229,9 +217,6 @@
     <t>ZonaInmueble</t>
   </si>
   <si>
-    <t>Capacidad</t>
-  </si>
-  <si>
     <t>Inmueble</t>
   </si>
   <si>
@@ -262,16 +247,49 @@
     <t>Es un dato que representa cuantos minutos son permitidos por uso en un dia la zona común</t>
   </si>
   <si>
-    <t>tiempoUso</t>
-  </si>
-  <si>
-    <t>unidadDeTiempoUso</t>
-  </si>
-  <si>
     <t>Minutos</t>
   </si>
   <si>
     <t>Hora</t>
+  </si>
+  <si>
+    <t>Capacidad de personas</t>
+  </si>
+  <si>
+    <t>tiempo de uso</t>
+  </si>
+  <si>
+    <t>Unidad de tiempo de uso</t>
+  </si>
+  <si>
+    <t>No puede haber más de un administrador con el mismo correo electrónico y el mismo numero de contacto.</t>
+  </si>
+  <si>
+    <t>Ciudad</t>
+  </si>
+  <si>
+    <t>Departamento</t>
+  </si>
+  <si>
+    <t>Rionegro</t>
+  </si>
+  <si>
+    <t>Antioquia</t>
+  </si>
+  <si>
+    <t>Medellín</t>
+  </si>
+  <si>
+    <t>Contacto de portería</t>
+  </si>
+  <si>
+    <t>Es un dato que representa el número de contacto de la portería de una conjunto residencial</t>
+  </si>
+  <si>
+    <t>Es un dato que representa el municipio dónde se encuentra un conjunto residencial.</t>
+  </si>
+  <si>
+    <t>Es un dato que representa el departamento dónde se encuentra el conjunto residencial.</t>
   </si>
 </sst>
 </file>
@@ -421,9 +439,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -445,9 +460,12 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -464,7 +482,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -786,13 +804,13 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" customWidth="1"/>
-    <col min="2" max="2" width="58.28515625" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" customWidth="1"/>
+    <col min="2" max="2" width="58.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -800,15 +818,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -816,28 +834,28 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -857,45 +875,45 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="23.85546875" customWidth="1"/>
+    <col min="4" max="4" width="23.88671875" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="23.85546875" customWidth="1"/>
-    <col min="7" max="7" width="33" customWidth="1"/>
+    <col min="6" max="6" width="23.88671875" customWidth="1"/>
+    <col min="7" max="7" width="38.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
       <c r="D2" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -903,70 +921,70 @@
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D4" s="12">
         <v>3053456459</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F4" s="12">
         <v>123456</v>
       </c>
       <c r="G4" s="13" t="str">
-        <f>B4&amp;"-"&amp;E4</f>
-        <v>Carlos-carlos@gmail.com</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <f>B4&amp;"-"&amp;D4&amp;"-"&amp;E4</f>
+        <v>Carlos-3053456459-carlos@gmail.com</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D5" s="1">
         <v>3584418688</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F5" s="1">
         <v>654321</v>
       </c>
       <c r="G5" s="13" t="str">
-        <f t="shared" ref="G5:G6" si="0">B5&amp;"-"&amp;E5</f>
-        <v>Sara-sara@gmail.com</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" ref="G5:G6" si="0">B5&amp;"-"&amp;D5&amp;"-"&amp;E5</f>
+        <v>Sara-3584418688-sara@gmail.com</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>3</v>
       </c>
@@ -977,7 +995,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>-</v>
+        <v>--</v>
       </c>
     </row>
   </sheetData>
@@ -996,31 +1014,33 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CCBB1F3-C6CB-4282-9EE1-3BEE3EA280EE}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="4" width="21.7109375" customWidth="1"/>
-    <col min="5" max="6" width="36" customWidth="1"/>
-    <col min="7" max="7" width="29" customWidth="1"/>
+    <col min="2" max="6" width="21.6640625" customWidth="1"/>
+    <col min="7" max="8" width="36" customWidth="1"/>
+    <col min="9" max="9" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
       <c r="G1" s="6"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>15</v>
       </c>
@@ -1031,17 +1051,23 @@
         <v>17</v>
       </c>
       <c r="D2" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="7"/>
+      <c r="I2" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1052,19 +1078,25 @@
         <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="I3" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>1</v>
       </c>
@@ -1074,56 +1106,70 @@
       <c r="C4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" s="9">
         <v>3053451564</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="G4" s="10" t="str">
+      <c r="H4" s="24" t="str">
+        <f>Administrador!G4</f>
+        <v>Carlos-3053456459-carlos@gmail.com</v>
+      </c>
+      <c r="I4" s="10" t="str">
         <f>_xlfn.CONCAT(A4,"-",B4)</f>
         <v>1-Forest apartamentos</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F5" s="9">
+        <v>3057477789</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="9">
-        <v>3057477789</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="G5" s="10" t="str">
+      <c r="H5" s="24" t="str">
+        <f>Administrador!G5</f>
+        <v>Sara-3584418688-sara@gmail.com</v>
+      </c>
+      <c r="I5" s="10" t="str">
         <f>_xlfn.CONCAT(A5,"-",B5)</f>
         <v>2-Natural</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A1" location="Objetos de dominio!A1" display="Objetos de dominio!A1" xr:uid="{D64C3258-0F3E-431B-9317-C8728CDAC55D}"/>
-    <hyperlink ref="G1" location="Objetos de dominio!A1" display="Objetos de dominio!A1" xr:uid="{AFF80FE2-F73C-488E-9508-D9E1A9B6135D}"/>
-    <hyperlink ref="F4" location="Administrador!A4" display="Carlos-carlos@gmail.com" xr:uid="{7D168C2A-3F1A-4D3F-A05A-5350E0C9CC3B}"/>
-    <hyperlink ref="F5" location="Administrador!A5" display="Sara-sara@gmail.com" xr:uid="{DC6D880C-E01A-4A61-9B2D-31FCC8E19585}"/>
-    <hyperlink ref="A1:D1" location="'Objetos de dominio'!A1" display="&lt;&lt;&lt;&lt;&lt;&lt; Volver al inicio" xr:uid="{E47C9477-04BF-4359-AA4E-108F5F557D82}"/>
-    <hyperlink ref="F3" location="Administrador!A1" display="Administrador" xr:uid="{8573C9AA-E4AB-4C12-80E7-A396F426EDA8}"/>
+    <hyperlink ref="I1" location="Objetos de dominio!A1" display="Objetos de dominio!A1" xr:uid="{AFF80FE2-F73C-488E-9508-D9E1A9B6135D}"/>
+    <hyperlink ref="H4" location="Administrador!A4" display="Carlos-carlos@gmail.com" xr:uid="{7D168C2A-3F1A-4D3F-A05A-5350E0C9CC3B}"/>
+    <hyperlink ref="A1:F1" location="'Objetos de dominio'!A1" display="&lt;&lt;&lt;&lt;&lt;&lt; Volver al inicio" xr:uid="{E47C9477-04BF-4359-AA4E-108F5F557D82}"/>
+    <hyperlink ref="H3" location="Administrador!A1" display="Administrador" xr:uid="{8573C9AA-E4AB-4C12-80E7-A396F426EDA8}"/>
+    <hyperlink ref="H5" location="Administrador!A4" display="Carlos-carlos@gmail.com" xr:uid="{B691C4A3-C438-46E2-9139-486F3E66B20C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1133,53 +1179,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{615584B6-BB9C-4024-AABA-069882FFA83A}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" customWidth="1"/>
-    <col min="5" max="5" width="37.140625" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" customWidth="1"/>
+    <col min="5" max="5" width="37.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
       <c r="E1" s="6"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>2</v>
@@ -1188,72 +1234,72 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E4" s="10" t="str">
         <f>_xlfn.CONCAT(B4,C4," de ",D4)</f>
         <v>Torre1 de 1-Forest apartamentos</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E5" s="10" t="str">
         <f t="shared" ref="E5:E12" si="0">_xlfn.CONCAT(B5,C5," de ",D5)</f>
         <v>Bloque1 de 1-Forest apartamentos</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C6" s="1">
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E6" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Torre2 de 1-Forest apartamentos</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C7" s="1">
         <v>2</v>
       </c>
       <c r="D7" s="3" t="str">
-        <f>ConjuntoResidencial!$G$5</f>
+        <f>ConjuntoResidencial!$I$5</f>
         <v>2-Natural</v>
       </c>
       <c r="E7" s="10" t="str">
@@ -1261,19 +1307,26 @@
         <v>Bloque2 de 2-Natural</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="B8" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="1">
+        <v>4</v>
+      </c>
+      <c r="D8" s="1" t="str">
+        <f>ConjuntoResidencial!I4</f>
+        <v>1-Forest apartamentos</v>
+      </c>
       <c r="E8" s="10" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> de </v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>Bloque4 de 1-Forest apartamentos</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -1285,7 +1338,7 @@
         <v xml:space="preserve"> de </v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -1297,7 +1350,7 @@
         <v xml:space="preserve"> de </v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1309,7 +1362,7 @@
         <v xml:space="preserve"> de </v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1321,14 +1374,14 @@
         <v xml:space="preserve"> de </v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1361,63 +1414,63 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="21.7109375" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
-    <col min="4" max="4" width="31.42578125" customWidth="1"/>
-    <col min="5" max="5" width="49.42578125" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="31.44140625" customWidth="1"/>
+    <col min="5" max="5" width="49.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
       <c r="E1" s="6"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C4" s="1">
         <v>102</v>
@@ -1431,12 +1484,12 @@
         <v>Apartamento '102' de Torre1 de 1-Forest apartamentos</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C5" s="1">
         <v>10</v>
@@ -1450,12 +1503,12 @@
         <v>Casa '10' de Bloque1 de 1-Forest apartamentos</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C6" s="1">
         <v>304</v>
@@ -1469,12 +1522,12 @@
         <v>Apartamento '304' de Torre2 de 1-Forest apartamentos</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C7" s="1">
         <v>11</v>
@@ -1488,7 +1541,7 @@
         <v>Casa '11' de Bloque2 de 2-Natural</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -1500,7 +1553,7 @@
         <v xml:space="preserve"> '' de </v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -1512,7 +1565,7 @@
         <v xml:space="preserve"> '' de </v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -1524,14 +1577,14 @@
         <v xml:space="preserve"> '' de </v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1560,22 +1613,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F3E3BD9-49ED-471B-BA3A-A84E923CE558}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
-    <col min="5" max="7" width="21.7109375" customWidth="1"/>
+    <col min="5" max="7" width="21.6640625" customWidth="1"/>
     <col min="8" max="8" width="15" customWidth="1"/>
-    <col min="9" max="9" width="23.7109375" customWidth="1"/>
-    <col min="10" max="10" width="33.140625" customWidth="1"/>
+    <col min="9" max="9" width="23.6640625" customWidth="1"/>
+    <col min="10" max="10" width="33.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>6</v>
       </c>
@@ -1589,37 +1642,37 @@
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1627,22 +1680,22 @@
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>2</v>
@@ -1651,31 +1704,31 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="16">
+    <row r="4" spans="1:10" ht="67.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="15">
         <v>1</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="19">
+      <c r="C4" s="16"/>
+      <c r="D4" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="18">
         <v>50</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="18">
         <v>60</v>
       </c>
-      <c r="G4" s="19" t="s">
-        <v>75</v>
+      <c r="G4" s="18" t="s">
+        <v>68</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I4" s="3" t="str">
-        <f>ConjuntoResidencial!$G$4</f>
+        <f>ConjuntoResidencial!$I$4</f>
         <v>1-Forest apartamentos</v>
       </c>
       <c r="J4" s="10" t="str">
@@ -1683,31 +1736,31 @@
         <v>Piscina-1-Forest apartamentos</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="84" x14ac:dyDescent="0.35">
-      <c r="A5" s="20">
+    <row r="5" spans="1:10" ht="84" x14ac:dyDescent="0.4">
+      <c r="A5" s="19">
         <v>2</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="19"/>
+      <c r="D5" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="21" t="s">
+      <c r="E5" s="21">
+        <v>20</v>
+      </c>
+      <c r="F5" s="21">
+        <v>120</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="22">
-        <v>20</v>
-      </c>
-      <c r="F5" s="22">
-        <v>120</v>
-      </c>
-      <c r="G5" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>31</v>
-      </c>
       <c r="I5" s="3" t="str">
-        <f>ConjuntoResidencial!$G$4</f>
+        <f>ConjuntoResidencial!$I$4</f>
         <v>1-Forest apartamentos</v>
       </c>
       <c r="J5" s="10" t="str">
@@ -1715,31 +1768,31 @@
         <v>Gimnasio-1-Forest apartamentos</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="73.150000000000006" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="20">
+    <row r="6" spans="1:10" ht="73.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="19">
         <v>3</v>
       </c>
-      <c r="B6" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="22">
+      <c r="B6" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="19"/>
+      <c r="D6" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="21">
         <v>15</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="21">
         <v>1</v>
       </c>
-      <c r="G6" s="22" t="s">
-        <v>76</v>
+      <c r="G6" s="21" t="s">
+        <v>69</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I6" s="3" t="str">
-        <f>ConjuntoResidencial!$G$5</f>
+        <f>ConjuntoResidencial!$I$5</f>
         <v>2-Natural</v>
       </c>
       <c r="J6" s="10" t="str">

--- a/Doo-Doc/Nueva Version Victus/MuestreoDatos/ConjuntosResidenciales Muestro Datos.xlsx
+++ b/Doo-Doc/Nueva Version Victus/MuestreoDatos/ConjuntosResidenciales Muestro Datos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uconet-my.sharepoint.com/personal/juan_avendano1956_uco_net_co/Documents/Documents/victus-doc/Doo-Doc/Nueva Version Victus/MuestreoDatos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{D74AB84A-B165-41E5-BAD9-CF6557DE9E87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8869C936-CE84-42A3-89AD-9281A90F1BBF}"/>
+  <xr:revisionPtr revIDLastSave="226" documentId="13_ncr:1_{D74AB84A-B165-41E5-BAD9-CF6557DE9E87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4E4A383-F6DE-41E5-8FA1-0D6CBFA2B71F}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{46B52760-6E94-4759-BDEF-A2400BC5A0BB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{46B52760-6E94-4759-BDEF-A2400BC5A0BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Objetos de dominio" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="141">
   <si>
     <t>Nombre</t>
   </si>
@@ -196,9 +196,6 @@
     <t>Sanchez</t>
   </si>
   <si>
-    <t>carlos@gmail.com</t>
-  </si>
-  <si>
     <t>sara@gmail.com</t>
   </si>
   <si>
@@ -290,13 +287,190 @@
   </si>
   <si>
     <t>Es un dato que representa el departamento dónde se encuentra el conjunto residencial.</t>
+  </si>
+  <si>
+    <t>Riogrande</t>
+  </si>
+  <si>
+    <t>Bolivar</t>
+  </si>
+  <si>
+    <t>Ventus</t>
+  </si>
+  <si>
+    <t>Calle 45 # 12-34</t>
+  </si>
+  <si>
+    <t>Carrera 8 # 34-56</t>
+  </si>
+  <si>
+    <t>Avenida 9 # 7-89</t>
+  </si>
+  <si>
+    <t>Un conjunto cerrado con amplias zonas verdes y áreas recreativas para toda la familia.</t>
+  </si>
+  <si>
+    <t>Barranquilla</t>
+  </si>
+  <si>
+    <t>Atlántico</t>
+  </si>
+  <si>
+    <t>Un lugar tranquilo con seguridad las 24 horas y acceso a servicios cercanos.</t>
+  </si>
+  <si>
+    <t>Bogotá</t>
+  </si>
+  <si>
+    <t>Cundinamarca</t>
+  </si>
+  <si>
+    <t>Moderno conjunto residencial con gimnasio, piscina y salón de eventos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">María </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gonzales </t>
+  </si>
+  <si>
+    <t>maria.gonzalez@example.com</t>
+  </si>
+  <si>
+    <t>Mg67890@</t>
+  </si>
+  <si>
+    <t>fd654321</t>
+  </si>
+  <si>
+    <t>as123456</t>
+  </si>
+  <si>
+    <t>Laura</t>
+  </si>
+  <si>
+    <t>Martínez</t>
+  </si>
+  <si>
+    <t>laura.martinez@example.com</t>
+  </si>
+  <si>
+    <t>Lm34567$</t>
+  </si>
+  <si>
+    <t>Andrés</t>
+  </si>
+  <si>
+    <t>López</t>
+  </si>
+  <si>
+    <t>andres.lopez@example.com</t>
+  </si>
+  <si>
+    <t>carlos@example.com</t>
+  </si>
+  <si>
+    <t>Sofía</t>
+  </si>
+  <si>
+    <t>Torres</t>
+  </si>
+  <si>
+    <t>sofia.torres@example.com</t>
+  </si>
+  <si>
+    <t>St45678^</t>
+  </si>
+  <si>
+    <t>Al89012%</t>
+  </si>
+  <si>
+    <t>Salón de Eventos</t>
+  </si>
+  <si>
+    <t>Un espacio amplio para celebrar reuniones sociales y familiares.</t>
+  </si>
+  <si>
+    <t>Reservar con al menos 3 días de anticipación. No se permite el uso de pirotecnia.</t>
+  </si>
+  <si>
+    <t>Cancha de Fútbol</t>
+  </si>
+  <si>
+    <t>Cancha de césped sintético para actividades deportivas en equipo.</t>
+  </si>
+  <si>
+    <t>Se requiere reservar con 2 horas de anticipación. Uso exclusivo de zapatos con tacos adecuados.</t>
+  </si>
+  <si>
+    <t>Piscina Pequeña</t>
+  </si>
+  <si>
+    <t>Piscina diseñada para niños, con profundidades seguras y vigilancia.</t>
+  </si>
+  <si>
+    <t>Es necesario el acompañamiento de un adulto. No se permite correr alrededor de la piscina.</t>
+  </si>
+  <si>
+    <t>Zona BBQ</t>
+  </si>
+  <si>
+    <t>Área equipada con parrillas y mesas para realizar asados al aire libre.</t>
+  </si>
+  <si>
+    <t>Limpiar el área después de cada uso. Se debe reservar con 1 día de anticipación.</t>
+  </si>
+  <si>
+    <t>Cancha de Tenis</t>
+  </si>
+  <si>
+    <t>Espacio deportivo para la práctica de tenis en un ambiente profesional</t>
+  </si>
+  <si>
+    <t>Uso exclusivo de zapatos de suela lisa. Reservar con 4 horas de anticipación.</t>
+  </si>
+  <si>
+    <t>Sala de Juegos</t>
+  </si>
+  <si>
+    <t>Sala equipada con mesas de ping-pong, billar y juegos de mesa para el disfrute familiar.</t>
+  </si>
+  <si>
+    <t>Reservar con al menos 2 horas de anticipación. Prohibido el consumo de alimentos en la sala.</t>
+  </si>
+  <si>
+    <t>piscina001.jpg</t>
+  </si>
+  <si>
+    <t>gimnasio002.jpg</t>
+  </si>
+  <si>
+    <t>piscinaadultos003.jpg</t>
+  </si>
+  <si>
+    <t>salón de eventos004.jpg</t>
+  </si>
+  <si>
+    <t>cancha de fútbol005.jpg</t>
+  </si>
+  <si>
+    <t>piscina pequeña006.jpg</t>
+  </si>
+  <si>
+    <t>zona bbq007.jpg</t>
+  </si>
+  <si>
+    <t>cancha de tenis008.jpg</t>
+  </si>
+  <si>
+    <t>sala de juegos009.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -336,28 +510,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="16"/>
-      <color theme="10"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -417,7 +569,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -439,29 +591,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -823,7 +987,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -839,23 +1003,23 @@
         <v>5</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -872,7 +1036,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF3124B0-BF43-4D8E-8B80-2D2432DEB873}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
@@ -881,18 +1045,18 @@
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="23.88671875" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="5" max="5" width="25.88671875" customWidth="1"/>
     <col min="6" max="6" width="23.88671875" customWidth="1"/>
-    <col min="7" max="7" width="38.88671875" customWidth="1"/>
+    <col min="7" max="7" width="43.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
     </row>
@@ -910,7 +1074,7 @@
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -950,14 +1114,14 @@
         <v>3053456459</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" s="12">
-        <v>123456</v>
+        <v>108</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>100</v>
       </c>
       <c r="G4" s="13" t="str">
         <f>B4&amp;"-"&amp;D4&amp;"-"&amp;E4</f>
-        <v>Carlos-3053456459-carlos@gmail.com</v>
+        <v>Carlos-3053456459-carlos@example.com</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -974,13 +1138,13 @@
         <v>3584418688</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F5" s="1">
-        <v>654321</v>
+        <v>51</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="G5" s="13" t="str">
-        <f t="shared" ref="G5:G6" si="0">B5&amp;"-"&amp;D5&amp;"-"&amp;E5</f>
+        <f t="shared" ref="G5:G9" si="0">B5&amp;"-"&amp;D5&amp;"-"&amp;E5</f>
         <v>Sara-3584418688-sara@gmail.com</v>
       </c>
     </row>
@@ -988,14 +1152,90 @@
       <c r="A6" s="9">
         <v>3</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="B6" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3209876543</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="G6" s="13" t="str">
         <f t="shared" si="0"/>
-        <v>--</v>
+        <v>María -3209876543-maria.gonzalez@example.com</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3156789012</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G7" s="13" t="str">
+        <f>B7&amp;"-"&amp;D7&amp;"-"&amp;E7</f>
+        <v>Laura-3156789012-laura.martinez@example.com</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D8" s="1">
+        <v>3007654321</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G8" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>Andrés-3007654321-andres.lopez@example.com</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3182345678</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G9" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>Sofía-3182345678-sofia.torres@example.com</v>
       </c>
     </row>
   </sheetData>
@@ -1007,6 +1247,7 @@
     <hyperlink ref="E5" r:id="rId2" xr:uid="{9C9CCAC3-14F6-486E-9A86-67C2D1CAFF52}"/>
     <hyperlink ref="A1" location="Objetos de dominio!A1" display="Objetos de dominio!A1" xr:uid="{C1ED9137-81DC-43DF-B6AA-ED6EFD23837F}"/>
     <hyperlink ref="A1:D1" location="'Objetos de dominio'!A1" display="&lt;&lt;&lt;&lt;&lt;&lt; Volver al inicio" xr:uid="{C5E3491F-ED23-4E33-A420-E536F5397D68}"/>
+    <hyperlink ref="E7" r:id="rId3" xr:uid="{8AA42C50-8743-4319-B0E5-4D686BB0533B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1014,28 +1255,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CCBB1F3-C6CB-4282-9EE1-3BEE3EA280EE}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="6" width="21.6640625" customWidth="1"/>
-    <col min="7" max="8" width="36" customWidth="1"/>
-    <col min="9" max="9" width="29" customWidth="1"/>
+    <col min="7" max="7" width="36" customWidth="1"/>
+    <col min="8" max="8" width="43.88671875" customWidth="1"/>
+    <col min="9" max="9" width="34.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
@@ -1051,13 +1293,13 @@
         <v>17</v>
       </c>
       <c r="D2" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>82</v>
-      </c>
       <c r="F2" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>18</v>
@@ -1078,13 +1320,13 @@
         <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="F3" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>1</v>
@@ -1107,10 +1349,10 @@
         <v>12</v>
       </c>
       <c r="D4" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>76</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>77</v>
       </c>
       <c r="F4" s="9">
         <v>3053451564</v>
@@ -1118,9 +1360,9 @@
       <c r="G4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="24" t="str">
+      <c r="H4" s="15" t="str">
         <f>Administrador!G4</f>
-        <v>Carlos-3053456459-carlos@gmail.com</v>
+        <v>Carlos-3053456459-carlos@example.com</v>
       </c>
       <c r="I4" s="10" t="str">
         <f>_xlfn.CONCAT(A4,"-",B4)</f>
@@ -1138,10 +1380,10 @@
         <v>45</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F5" s="9">
         <v>3057477789</v>
@@ -1149,13 +1391,106 @@
       <c r="G5" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H5" s="24" t="str">
+      <c r="H5" s="15" t="str">
         <f>Administrador!G5</f>
         <v>Sara-3584418688-sara@gmail.com</v>
       </c>
       <c r="I5" s="10" t="str">
         <f>_xlfn.CONCAT(A5,"-",B5)</f>
         <v>2-Natural</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" s="1">
+        <v>3001234567</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="H6" s="15" t="str">
+        <f>Administrador!G6</f>
+        <v>María -3209876543-maria.gonzalez@example.com</v>
+      </c>
+      <c r="I6" s="10" t="str">
+        <f t="shared" ref="I6:I8" si="0">_xlfn.CONCAT(A6,"-",B6)</f>
+        <v>3-Riogrande</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F7" s="1">
+        <v>3207654321</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="H7" s="15" t="str">
+        <f>Administrador!G7</f>
+        <v>Laura-3156789012-laura.martinez@example.com</v>
+      </c>
+      <c r="I7" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>4-Bolivar</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F8" s="1">
+        <v>3109876543</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="H8" s="15" t="str">
+        <f>Administrador!G8</f>
+        <v>Andrés-3007654321-andres.lopez@example.com</v>
+      </c>
+      <c r="I8" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>5-Ventus</v>
       </c>
     </row>
   </sheetData>
@@ -1170,6 +1505,7 @@
     <hyperlink ref="A1:F1" location="'Objetos de dominio'!A1" display="&lt;&lt;&lt;&lt;&lt;&lt; Volver al inicio" xr:uid="{E47C9477-04BF-4359-AA4E-108F5F557D82}"/>
     <hyperlink ref="H3" location="Administrador!A1" display="Administrador" xr:uid="{8573C9AA-E4AB-4C12-80E7-A396F426EDA8}"/>
     <hyperlink ref="H5" location="Administrador!A4" display="Carlos-carlos@gmail.com" xr:uid="{B691C4A3-C438-46E2-9139-486F3E66B20C}"/>
+    <hyperlink ref="H6:H8" location="Administrador!A4" display="Carlos-carlos@gmail.com" xr:uid="{59A54CB4-A9B8-4752-8A52-FC6023395723}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1179,8 +1515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{615584B6-BB9C-4024-AABA-069882FFA83A}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1192,12 +1528,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
       <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -1222,10 +1558,10 @@
         <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>2</v>
@@ -1239,7 +1575,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
@@ -1257,7 +1593,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -1275,7 +1611,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C6" s="1">
         <v>2</v>
@@ -1293,7 +1629,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C7" s="1">
         <v>2</v>
@@ -1312,12 +1648,12 @@
         <v>5</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C8" s="1">
         <v>4</v>
       </c>
-      <c r="D8" s="1" t="str">
+      <c r="D8" s="3" t="str">
         <f>ConjuntoResidencial!I4</f>
         <v>1-Forest apartamentos</v>
       </c>
@@ -1330,58 +1666,86 @@
       <c r="A9" s="1">
         <v>6</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="B9" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2</v>
+      </c>
+      <c r="D9" s="3" t="str">
+        <f>ConjuntoResidencial!I6</f>
+        <v>3-Riogrande</v>
+      </c>
       <c r="E9" s="10" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> de </v>
+        <v>Bloque2 de 3-Riogrande</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="B10" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="1">
+        <v>5</v>
+      </c>
+      <c r="D10" s="3" t="str">
+        <f>ConjuntoResidencial!I8</f>
+        <v>5-Ventus</v>
+      </c>
       <c r="E10" s="10" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> de </v>
+        <v>Bloque5 de 5-Ventus</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>8</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="B11" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="1">
+        <v>7</v>
+      </c>
+      <c r="D11" s="3" t="str">
+        <f>ConjuntoResidencial!I7</f>
+        <v>4-Bolivar</v>
+      </c>
       <c r="E11" s="10" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> de </v>
+        <v>Torre7 de 4-Bolivar</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>9</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="B12" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="1">
+        <v>3</v>
+      </c>
+      <c r="D12" s="3" t="str">
+        <f>ConjuntoResidencial!I6</f>
+        <v>3-Riogrande</v>
+      </c>
       <c r="E12" s="10" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> de </v>
+        <v>Bloque3 de 3-Riogrande</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1401,6 +1765,11 @@
     <hyperlink ref="D4" location="ConjuntoResidencial!A4" display="1-Forest apartamentos" xr:uid="{FE6B8B9A-D67F-410F-9E6F-226B627CD379}"/>
     <hyperlink ref="D5:D6" location="ConjuntoResidencial!A4" display="1-Forest apartamentos" xr:uid="{26734694-0972-4ADC-AA89-B0972D85EEB6}"/>
     <hyperlink ref="D7" location="ConjuntoResidencial!A5" display="ConjuntoResidencial!A5" xr:uid="{8C0CBF64-4C4C-4615-84CA-37407A122B1B}"/>
+    <hyperlink ref="D8" location="ConjuntoResidencial!A4" display="ConjuntoResidencial!A4" xr:uid="{424EF75D-3021-4DCE-AC86-B7B197E2AA3F}"/>
+    <hyperlink ref="D9" location="ConjuntoResidencial!A6" display="ConjuntoResidencial!A6" xr:uid="{90A0238A-B68E-43CA-A4E7-622B7D624F49}"/>
+    <hyperlink ref="D10" location="ConjuntoResidencial!A8" display="ConjuntoResidencial!A8" xr:uid="{28B59E02-AAE4-463A-BA1C-AF2FB360623A}"/>
+    <hyperlink ref="D11" location="ConjuntoResidencial!A7" display="ConjuntoResidencial!A7" xr:uid="{466D4C91-E5E2-4912-BD49-0C66AEDD1636}"/>
+    <hyperlink ref="D12" location="ConjuntoResidencial!A6" display="ConjuntoResidencial!A6" xr:uid="{BB64C223-5AFB-4870-A3BB-24CF127D7640}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1411,7 +1780,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1423,12 +1792,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
       <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -1453,13 +1822,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="D3" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>8</v>
@@ -1470,7 +1839,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C4" s="1">
         <v>102</v>
@@ -1489,7 +1858,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C5" s="1">
         <v>10</v>
@@ -1499,7 +1868,7 @@
         <v>Bloque1 de 1-Forest apartamentos</v>
       </c>
       <c r="E5" s="10" t="str">
-        <f t="shared" ref="E5:E10" si="0">_xlfn.CONCAT(B5," '",C5,"'"," de ",D5)</f>
+        <f t="shared" ref="E5:E13" si="0">_xlfn.CONCAT(B5," '",C5,"'"," de ",D5)</f>
         <v>Casa '10' de Bloque1 de 1-Forest apartamentos</v>
       </c>
     </row>
@@ -1508,7 +1877,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C6" s="1">
         <v>304</v>
@@ -1527,7 +1896,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C7" s="1">
         <v>11</v>
@@ -1545,46 +1914,124 @@
       <c r="A8" s="1">
         <v>5</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="B8" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="1">
+        <v>423</v>
+      </c>
+      <c r="D8" s="1" t="str">
+        <f>Zonainmueble!E10</f>
+        <v>Bloque5 de 5-Ventus</v>
+      </c>
       <c r="E8" s="10" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> '' de </v>
+        <v>Apartamento '423' de Bloque5 de 5-Ventus</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="B9" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1204</v>
+      </c>
+      <c r="D9" s="1" t="str">
+        <f>Zonainmueble!E11</f>
+        <v>Torre7 de 4-Bolivar</v>
+      </c>
       <c r="E9" s="10" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> '' de </v>
+        <v>Apartamento '1204' de Torre7 de 4-Bolivar</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="B10" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="1">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1" t="str">
+        <f>Zonainmueble!E7</f>
+        <v>Bloque2 de 2-Natural</v>
+      </c>
       <c r="E10" s="10" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> '' de </v>
+        <v>Casa '5' de Bloque2 de 2-Natural</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="9">
+        <v>8</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="19">
+        <v>17</v>
+      </c>
+      <c r="D11" s="1" t="str">
+        <f>Zonainmueble!E12</f>
+        <v>Bloque3 de 3-Riogrande</v>
+      </c>
+      <c r="E11" s="10" t="str">
+        <f>_xlfn.CONCAT(B11," '",C11,"'"," de ",D11)</f>
+        <v>Casa '17' de Bloque3 de 3-Riogrande</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>9</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="19">
+        <v>514</v>
+      </c>
+      <c r="D12" s="1" t="str">
+        <f>Zonainmueble!E9</f>
+        <v>Bloque2 de 3-Riogrande</v>
+      </c>
+      <c r="E12" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>Apartamento '514' de Bloque2 de 3-Riogrande</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>10</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="19">
+        <v>23</v>
+      </c>
+      <c r="D13" s="1" t="str">
+        <f>Zonainmueble!E7</f>
+        <v>Bloque2 de 2-Natural</v>
+      </c>
+      <c r="E13" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>Casa '23' de Bloque2 de 2-Natural</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1611,16 +2058,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F3E3BD9-49ED-471B-BA3A-A84E923CE558}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="21.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
     <col min="5" max="7" width="21.6640625" customWidth="1"/>
     <col min="8" max="8" width="15" customWidth="1"/>
@@ -1660,7 +2107,7 @@
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>35</v>
@@ -1686,13 +2133,13 @@
         <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>21</v>
@@ -1704,101 +2151,332 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="67.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="15">
+    <row r="4" spans="1:10" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="24">
         <v>1</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="17" t="s">
+      <c r="C4" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="24">
         <v>50</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="24">
         <v>60</v>
       </c>
-      <c r="G4" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="H4" s="5" t="s">
+      <c r="G4" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="3" t="str">
+      <c r="I4" s="25" t="str">
         <f>ConjuntoResidencial!$I$4</f>
         <v>1-Forest apartamentos</v>
       </c>
-      <c r="J4" s="10" t="str">
+      <c r="J4" s="26" t="str">
         <f>_xlfn.CONCAT(B4,"-",I4)</f>
         <v>Piscina-1-Forest apartamentos</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="84" x14ac:dyDescent="0.4">
-      <c r="A5" s="19">
+    <row r="5" spans="1:10" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="27">
         <v>2</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="20" t="s">
+      <c r="C5" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="D5" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="27">
         <v>20</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="27">
         <v>120</v>
       </c>
-      <c r="G5" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="H5" s="14" t="s">
+      <c r="G5" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="H5" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="3" t="str">
+      <c r="I5" s="25" t="str">
         <f>ConjuntoResidencial!$I$4</f>
         <v>1-Forest apartamentos</v>
       </c>
-      <c r="J5" s="10" t="str">
+      <c r="J5" s="26" t="str">
         <f>_xlfn.CONCAT(B5,"-",I5)</f>
         <v>Gimnasio-1-Forest apartamentos</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="73.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="19">
+    <row r="6" spans="1:10" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="27">
         <v>3</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="22" t="s">
+      <c r="C6" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="27">
         <v>15</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="27">
         <v>1</v>
       </c>
-      <c r="G6" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="H6" s="5" t="s">
+      <c r="G6" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="3" t="str">
+      <c r="I6" s="25" t="str">
         <f>ConjuntoResidencial!$I$5</f>
         <v>2-Natural</v>
       </c>
-      <c r="J6" s="10" t="str">
+      <c r="J6" s="26" t="str">
         <f>_xlfn.CONCAT(B6,"-",I6)</f>
         <v>piscinaAdultos-2-Natural</v>
       </c>
+    </row>
+    <row r="7" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="A7" s="29">
+        <v>4</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="E7" s="29">
+        <v>100</v>
+      </c>
+      <c r="F7" s="29">
+        <v>4</v>
+      </c>
+      <c r="G7" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="H7" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="I7" s="25" t="str">
+        <f>ConjuntoResidencial!I6</f>
+        <v>3-Riogrande</v>
+      </c>
+      <c r="J7" s="26" t="str">
+        <f t="shared" ref="J7:J12" si="0">_xlfn.CONCAT(B7,"-",I7)</f>
+        <v>Salón de Eventos-3-Riogrande</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="29">
+        <v>5</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="E8" s="29">
+        <v>22</v>
+      </c>
+      <c r="F8" s="29">
+        <v>90</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="I8" s="25" t="str">
+        <f>ConjuntoResidencial!I7</f>
+        <v>4-Bolivar</v>
+      </c>
+      <c r="J8" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>Cancha de Fútbol-4-Bolivar</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="29">
+        <v>6</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="E9" s="29">
+        <v>20</v>
+      </c>
+      <c r="F9" s="29">
+        <v>45</v>
+      </c>
+      <c r="G9" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="I9" s="25" t="str">
+        <f>ConjuntoResidencial!I5</f>
+        <v>2-Natural</v>
+      </c>
+      <c r="J9" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>Piscina Pequeña-2-Natural</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="29">
+        <v>7</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="E10" s="29">
+        <v>15</v>
+      </c>
+      <c r="F10" s="29">
+        <v>2</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="I10" s="25" t="str">
+        <f>ConjuntoResidencial!I8</f>
+        <v>5-Ventus</v>
+      </c>
+      <c r="J10" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>Zona BBQ-5-Ventus</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="A11" s="29">
+        <v>8</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="E11" s="29">
+        <v>4</v>
+      </c>
+      <c r="F11" s="29">
+        <v>60</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="I11" s="25" t="str">
+        <f>ConjuntoResidencial!I6</f>
+        <v>3-Riogrande</v>
+      </c>
+      <c r="J11" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>Cancha de Tenis-3-Riogrande</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="29">
+        <v>9</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="E12" s="29">
+        <v>10</v>
+      </c>
+      <c r="F12" s="29">
+        <v>90</v>
+      </c>
+      <c r="G12" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="I12" s="25" t="str">
+        <f>ConjuntoResidencial!I4</f>
+        <v>1-Forest apartamentos</v>
+      </c>
+      <c r="J12" s="26" t="str">
+        <f t="shared" si="0"/>
+        <v>Sala de Juegos-1-Forest apartamentos</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="21"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="17"/>
+      <c r="H13" s="17"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="21"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="17"/>
+      <c r="H14" s="17"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="21"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="17"/>
+      <c r="H15" s="17"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Doo-Doc/Nueva Version Victus/MuestreoDatos/ConjuntosResidenciales Muestro Datos.xlsx
+++ b/Doo-Doc/Nueva Version Victus/MuestreoDatos/ConjuntosResidenciales Muestro Datos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uconet-my.sharepoint.com/personal/juan_avendano1956_uco_net_co/Documents/Documents/victus-doc/Doo-Doc/Nueva Version Victus/MuestreoDatos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Music\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="226" documentId="13_ncr:1_{D74AB84A-B165-41E5-BAD9-CF6557DE9E87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4E4A383-F6DE-41E5-8FA1-0D6CBFA2B71F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F51CCAB1-80B3-46A6-99AD-F559C35FD6A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{46B52760-6E94-4759-BDEF-A2400BC5A0BB}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" firstSheet="1" activeTab="5" xr2:uid="{46B52760-6E94-4759-BDEF-A2400BC5A0BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Objetos de dominio" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="159">
   <si>
     <t>Nombre</t>
   </si>
@@ -73,12 +73,6 @@
     <t>Forest apartamentos</t>
   </si>
   <si>
-    <t>Dirección</t>
-  </si>
-  <si>
-    <t>Número de contacto</t>
-  </si>
-  <si>
     <t>Transversal 42b #12-46</t>
   </si>
   <si>
@@ -106,9 +100,6 @@
     <t>Es un espacio deportivo y lúdico</t>
   </si>
   <si>
-    <t>Normas</t>
-  </si>
-  <si>
     <t>Imagen</t>
   </si>
   <si>
@@ -118,12 +109,6 @@
     <t>Combinación única</t>
   </si>
   <si>
-    <t>Apellido</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
     <t>No es posible tener más de un conjunto residencial con el mismo nombre</t>
   </si>
   <si>
@@ -139,9 +124,6 @@
     <t>Es un dato que representa al nombre de una zona comun.</t>
   </si>
   <si>
-    <t>Es te atributo hace referencia a la imagen que va a acompañar a la zona común para mayor facilidad a la hora de identificarlo.</t>
-  </si>
-  <si>
     <t>Es un dato que representa el formato de texto de una descripción para la zona común.</t>
   </si>
   <si>
@@ -160,9 +142,6 @@
     <t>Es un dato que hace que cada administrador sea único.</t>
   </si>
   <si>
-    <t>Es un dato que representa el nombre del administrador</t>
-  </si>
-  <si>
     <t>Este dato representa el número de contacto de un administrador.</t>
   </si>
   <si>
@@ -232,42 +211,21 @@
     <t>tipoInmueble</t>
   </si>
   <si>
-    <t>numero de vivienda</t>
-  </si>
-  <si>
     <t>Apartamento</t>
   </si>
   <si>
     <t>Casa</t>
   </si>
   <si>
-    <t>Es un dato que representa cuantos minutos son permitidos por uso en un dia la zona común</t>
-  </si>
-  <si>
     <t>Minutos</t>
   </si>
   <si>
     <t>Hora</t>
   </si>
   <si>
-    <t>Capacidad de personas</t>
-  </si>
-  <si>
-    <t>tiempo de uso</t>
-  </si>
-  <si>
-    <t>Unidad de tiempo de uso</t>
-  </si>
-  <si>
     <t>No puede haber más de un administrador con el mismo correo electrónico y el mismo numero de contacto.</t>
   </si>
   <si>
-    <t>Ciudad</t>
-  </si>
-  <si>
-    <t>Departamento</t>
-  </si>
-  <si>
     <t>Rionegro</t>
   </si>
   <si>
@@ -277,9 +235,6 @@
     <t>Medellín</t>
   </si>
   <si>
-    <t>Contacto de portería</t>
-  </si>
-  <si>
     <t>Es un dato que representa el número de contacto de la portería de una conjunto residencial</t>
   </si>
   <si>
@@ -464,6 +419,105 @@
   </si>
   <si>
     <t>sala de juegos009.jpg</t>
+  </si>
+  <si>
+    <t>Este atributo hace referencia a la imagen que va a acompañar a la zona común para mayor facilidad a la hora de identificarlo.</t>
+  </si>
+  <si>
+    <t>Este es le dato que representa el tiempo de uso por numero entero de residente</t>
+  </si>
+  <si>
+    <t>Es un dato que representa la unidad de la cual el tiempo de va a definir</t>
+  </si>
+  <si>
+    <t>Es un dato que hace que cada inmueble sea único.</t>
+  </si>
+  <si>
+    <t>Es un dato que representa al nombre de un inmueble Casa, apartamento ETC.</t>
+  </si>
+  <si>
+    <t>Es te atributo representa el numero especifico del inmueble.</t>
+  </si>
+  <si>
+    <t>numeroDeVivienda</t>
+  </si>
+  <si>
+    <t>Es un dato que representa la zona inmueble al cual pertenece el inmueble.</t>
+  </si>
+  <si>
+    <t>No es posible tener mas de un tipo inmueble que tenga el mismo numero de vivienda mas la misma zona inmueble.</t>
+  </si>
+  <si>
+    <t>Es un dato que hace que cada zona imueble sea única.</t>
+  </si>
+  <si>
+    <t>Es un dato que representa al nombre de una zona inmueble.</t>
+  </si>
+  <si>
+    <t>Es el atributo que representa el numero que pertenece a un tipo de zona inmueble .</t>
+  </si>
+  <si>
+    <t>Es un dato que representa el conjunto residencial al cual pertenece la zona inmueble.</t>
+  </si>
+  <si>
+    <t>No es posible tener más de una zona inmueble con el mismo nombre para un mismo conjunto residencial.</t>
+  </si>
+  <si>
+    <t>Este es un dato de tipo Administrador que representa el administrador del conjunto residencial.</t>
+  </si>
+  <si>
+    <t>Este dato representa el nombre del administrador</t>
+  </si>
+  <si>
+    <t>Este dato representa el apellido del administrador</t>
+  </si>
+  <si>
+    <t>Es un dato que representa el email del administrador</t>
+  </si>
+  <si>
+    <t>Este dato representa la contraseña del administrador</t>
+  </si>
+  <si>
+    <t>nombre</t>
+  </si>
+  <si>
+    <t>apellido</t>
+  </si>
+  <si>
+    <t>numeroDeContacto</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>dirección</t>
+  </si>
+  <si>
+    <t>ciudad</t>
+  </si>
+  <si>
+    <t>departamento</t>
+  </si>
+  <si>
+    <t>descripcion</t>
+  </si>
+  <si>
+    <t>contactoDePorteria</t>
+  </si>
+  <si>
+    <t>descripción</t>
+  </si>
+  <si>
+    <t>capacidadDePersonas</t>
+  </si>
+  <si>
+    <t>tiempoDeUso</t>
+  </si>
+  <si>
+    <t>unidadDeTiempoDeUso</t>
+  </si>
+  <si>
+    <t>normas</t>
   </si>
 </sst>
 </file>
@@ -569,7 +623,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -594,32 +648,19 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -627,9 +668,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -646,7 +690,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -968,13 +1012,13 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" customWidth="1"/>
-    <col min="2" max="2" width="58.33203125" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" customWidth="1"/>
+    <col min="2" max="2" width="58.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -982,15 +1026,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -998,28 +1042,28 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1039,199 +1083,205 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="23.88671875" customWidth="1"/>
-    <col min="5" max="5" width="25.88671875" customWidth="1"/>
-    <col min="6" max="6" width="23.88671875" customWidth="1"/>
-    <col min="7" max="7" width="43.33203125" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" customWidth="1"/>
+    <col min="5" max="5" width="25.85546875" customWidth="1"/>
+    <col min="6" max="6" width="23.85546875" customWidth="1"/>
+    <col min="7" max="7" width="47.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
+        <v>32</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>142</v>
+      </c>
       <c r="D2" s="7" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" s="7"/>
+        <v>143</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>144</v>
+      </c>
       <c r="G2" s="7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>25</v>
+        <v>146</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
+        <v>147</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>26</v>
+        <v>148</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D4" s="12">
         <v>3053456459</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>100</v>
+        <v>93</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>85</v>
       </c>
       <c r="G4" s="13" t="str">
         <f>B4&amp;"-"&amp;D4&amp;"-"&amp;E4</f>
         <v>Carlos-3053456459-carlos@example.com</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D5" s="1">
         <v>3584418688</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="G5" s="13" t="str">
         <f t="shared" ref="G5:G9" si="0">B5&amp;"-"&amp;D5&amp;"-"&amp;E5</f>
         <v>Sara-3584418688-sara@gmail.com</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="D6" s="1">
         <v>3209876543</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="G6" s="13" t="str">
         <f t="shared" si="0"/>
         <v>María -3209876543-maria.gonzalez@example.com</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="D7" s="1">
         <v>3156789012</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="G7" s="13" t="str">
         <f>B7&amp;"-"&amp;D7&amp;"-"&amp;E7</f>
         <v>Laura-3156789012-laura.martinez@example.com</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="D8" s="1">
         <v>3007654321</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="G8" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Andrés-3007654321-andres.lopez@example.com</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="D9" s="1">
         <v>3182345678</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="G9" s="13" t="str">
         <f t="shared" si="0"/>
@@ -1258,78 +1308,80 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="6" width="21.6640625" customWidth="1"/>
+    <col min="2" max="6" width="21.7109375" customWidth="1"/>
     <col min="7" max="7" width="36" customWidth="1"/>
-    <col min="8" max="8" width="43.88671875" customWidth="1"/>
-    <col min="9" max="9" width="34.21875" customWidth="1"/>
+    <col min="8" max="8" width="43.85546875" customWidth="1"/>
+    <col min="9" max="9" width="34.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="D2" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="7"/>
+      <c r="H2" s="7" t="s">
+        <v>140</v>
+      </c>
       <c r="I2" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>149</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>73</v>
+        <v>150</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>74</v>
+        <v>151</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>78</v>
+        <v>153</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>1</v>
+        <v>152</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>5</v>
@@ -1338,7 +1390,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>1</v>
       </c>
@@ -1346,19 +1398,19 @@
         <v>9</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="F4" s="9">
         <v>3053451564</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H4" s="15" t="str">
         <f>Administrador!G4</f>
@@ -1369,27 +1421,27 @@
         <v>1-Forest apartamentos</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="F5" s="9">
         <v>3057477789</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H5" s="15" t="str">
         <f>Administrador!G5</f>
@@ -1400,27 +1452,27 @@
         <v>2-Natural</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="F6" s="1">
         <v>3001234567</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="H6" s="15" t="str">
         <f>Administrador!G6</f>
@@ -1431,27 +1483,27 @@
         <v>3-Riogrande</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="F7" s="1">
         <v>3207654321</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="H7" s="15" t="str">
         <f>Administrador!G7</f>
@@ -1462,27 +1514,27 @@
         <v>4-Bolivar</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="F8" s="1">
         <v>3109876543</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="H8" s="15" t="str">
         <f>Administrador!G8</f>
@@ -1513,55 +1565,55 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{615584B6-BB9C-4024-AABA-069882FFA83A}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" customWidth="1"/>
-    <col min="5" max="5" width="37.109375" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" customWidth="1"/>
+    <col min="5" max="5" width="37.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
       <c r="E1" s="6"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>37</v>
+        <v>135</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>31</v>
+        <v>136</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>32</v>
+        <v>137</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>36</v>
+        <v>138</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>2</v>
@@ -1570,66 +1622,66 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E4" s="10" t="str">
         <f>_xlfn.CONCAT(B4,C4," de ",D4)</f>
         <v>Torre1 de 1-Forest apartamentos</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E5" s="10" t="str">
         <f t="shared" ref="E5:E12" si="0">_xlfn.CONCAT(B5,C5," de ",D5)</f>
         <v>Bloque1 de 1-Forest apartamentos</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C6" s="1">
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E6" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Torre2 de 1-Forest apartamentos</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C7" s="1">
         <v>2</v>
@@ -1643,12 +1695,12 @@
         <v>Bloque2 de 2-Natural</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C8" s="1">
         <v>4</v>
@@ -1662,12 +1714,12 @@
         <v>Bloque4 de 1-Forest apartamentos</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>6</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C9" s="1">
         <v>2</v>
@@ -1681,12 +1733,12 @@
         <v>Bloque2 de 3-Riogrande</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>7</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C10" s="1">
         <v>5</v>
@@ -1700,12 +1752,12 @@
         <v>Bloque5 de 5-Ventus</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>8</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C11" s="1">
         <v>7</v>
@@ -1719,12 +1771,12 @@
         <v>Torre7 de 4-Bolivar</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>9</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C12" s="1">
         <v>3</v>
@@ -1736,16 +1788,6 @@
       <c r="E12" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Bloque3 de 3-Riogrande</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1780,66 +1822,67 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.6640625" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
-    <col min="4" max="4" width="31.44140625" customWidth="1"/>
-    <col min="5" max="5" width="49.44140625" customWidth="1"/>
+    <col min="1" max="1" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="4" max="4" width="31.42578125" customWidth="1"/>
+    <col min="5" max="5" width="49.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
       <c r="E1" s="6"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>31</v>
+        <v>130</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>32</v>
+        <v>131</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>36</v>
+        <v>133</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>63</v>
+        <v>132</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C4" s="1">
         <v>102</v>
@@ -1853,12 +1896,12 @@
         <v>Apartamento '102' de Torre1 de 1-Forest apartamentos</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C5" s="1">
         <v>10</v>
@@ -1872,12 +1915,12 @@
         <v>Casa '10' de Bloque1 de 1-Forest apartamentos</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C6" s="1">
         <v>304</v>
@@ -1891,12 +1934,12 @@
         <v>Apartamento '304' de Torre2 de 1-Forest apartamentos</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C7" s="1">
         <v>11</v>
@@ -1910,12 +1953,12 @@
         <v>Casa '11' de Bloque2 de 2-Natural</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C8" s="1">
         <v>423</v>
@@ -1929,12 +1972,12 @@
         <v>Apartamento '423' de Bloque5 de 5-Ventus</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>6</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C9" s="1">
         <v>1204</v>
@@ -1948,12 +1991,12 @@
         <v>Apartamento '1204' de Torre7 de 4-Bolivar</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>7</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C10" s="1">
         <v>5</v>
@@ -1967,14 +2010,14 @@
         <v>Casa '5' de Bloque2 de 2-Natural</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>8</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" s="19">
+        <v>57</v>
+      </c>
+      <c r="C11" s="1">
         <v>17</v>
       </c>
       <c r="D11" s="1" t="str">
@@ -1986,14 +2029,14 @@
         <v>Casa '17' de Bloque3 de 3-Riogrande</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>9</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" s="19">
+        <v>56</v>
+      </c>
+      <c r="C12" s="1">
         <v>514</v>
       </c>
       <c r="D12" s="1" t="str">
@@ -2005,14 +2048,14 @@
         <v>Apartamento '514' de Bloque2 de 3-Riogrande</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>10</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13" s="19">
+        <v>57</v>
+      </c>
+      <c r="C13" s="1">
         <v>23</v>
       </c>
       <c r="D13" s="1" t="str">
@@ -2024,14 +2067,14 @@
         <v>Casa '23' de Bloque2 de 2-Natural</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2060,22 +2103,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F3E3BD9-49ED-471B-BA3A-A84E923CE558}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.6640625" customWidth="1"/>
-    <col min="3" max="3" width="24.6640625" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
-    <col min="5" max="7" width="21.6640625" customWidth="1"/>
+    <col min="5" max="7" width="21.7109375" customWidth="1"/>
     <col min="8" max="8" width="15" customWidth="1"/>
-    <col min="9" max="9" width="23.6640625" customWidth="1"/>
-    <col min="10" max="10" width="33.109375" customWidth="1"/>
+    <col min="9" max="9" width="23.7109375" customWidth="1"/>
+    <col min="10" max="10" width="33.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>6</v>
       </c>
@@ -2089,60 +2132,62 @@
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>32</v>
+        <v>126</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>127</v>
+      </c>
       <c r="G2" s="7" t="s">
-        <v>66</v>
+        <v>128</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>1</v>
+        <v>154</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>69</v>
+        <v>155</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>70</v>
+        <v>156</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>71</v>
+        <v>157</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>21</v>
+        <v>158</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>2</v>
@@ -2151,332 +2196,327 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="24">
+    <row r="4" spans="1:10" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="19">
         <v>1</v>
       </c>
-      <c r="B4" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>132</v>
+      <c r="B4" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>117</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="19">
+        <v>50</v>
+      </c>
+      <c r="F4" s="19">
+        <v>60</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="24">
-        <v>50</v>
-      </c>
-      <c r="F4" s="24">
-        <v>60</v>
-      </c>
-      <c r="G4" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" s="25" t="str">
+      <c r="I4" s="20" t="str">
         <f>ConjuntoResidencial!$I$4</f>
         <v>1-Forest apartamentos</v>
       </c>
-      <c r="J4" s="26" t="str">
+      <c r="J4" s="21" t="str">
         <f>_xlfn.CONCAT(B4,"-",I4)</f>
         <v>Piscina-1-Forest apartamentos</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="27">
+    <row r="5" spans="1:10" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="22">
         <v>2</v>
       </c>
-      <c r="B5" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="D5" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="27">
+      <c r="B5" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="22">
         <v>20</v>
       </c>
-      <c r="F5" s="27">
+      <c r="F5" s="22">
         <v>120</v>
       </c>
-      <c r="G5" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="H5" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="25" t="str">
+      <c r="G5" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="20" t="str">
         <f>ConjuntoResidencial!$I$4</f>
         <v>1-Forest apartamentos</v>
       </c>
-      <c r="J5" s="26" t="str">
+      <c r="J5" s="21" t="str">
         <f>_xlfn.CONCAT(B5,"-",I5)</f>
         <v>Gimnasio-1-Forest apartamentos</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="27">
+    <row r="6" spans="1:10" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="22">
         <v>3</v>
       </c>
-      <c r="B6" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>134</v>
+      <c r="B6" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>119</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="22">
+        <v>15</v>
+      </c>
+      <c r="F6" s="22">
+        <v>1</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="27">
-        <v>15</v>
-      </c>
-      <c r="F6" s="27">
-        <v>1</v>
-      </c>
-      <c r="G6" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="25" t="str">
+      <c r="I6" s="20" t="str">
         <f>ConjuntoResidencial!$I$5</f>
         <v>2-Natural</v>
       </c>
-      <c r="J6" s="26" t="str">
+      <c r="J6" s="21" t="str">
         <f>_xlfn.CONCAT(B6,"-",I6)</f>
         <v>piscinaAdultos-2-Natural</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="A7" s="29">
+    <row r="7" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="A7" s="22">
         <v>4</v>
       </c>
-      <c r="B7" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>115</v>
-      </c>
-      <c r="E7" s="29">
+      <c r="B7" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="F7" s="29">
+      <c r="E7" s="22">
+        <v>100</v>
+      </c>
+      <c r="F7" s="22">
         <v>4</v>
       </c>
-      <c r="G7" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="H7" s="30" t="s">
-        <v>116</v>
-      </c>
-      <c r="I7" s="25" t="str">
+      <c r="G7" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="I7" s="20" t="str">
         <f>ConjuntoResidencial!I6</f>
         <v>3-Riogrande</v>
       </c>
-      <c r="J7" s="26" t="str">
+      <c r="J7" s="21" t="str">
         <f t="shared" ref="J7:J12" si="0">_xlfn.CONCAT(B7,"-",I7)</f>
         <v>Salón de Eventos-3-Riogrande</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="29">
+    <row r="8" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A8" s="22">
         <v>5</v>
       </c>
-      <c r="B8" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="E8" s="29">
+      <c r="B8" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8" s="22">
         <v>22</v>
       </c>
-      <c r="F8" s="29">
+      <c r="F8" s="22">
         <v>90</v>
       </c>
-      <c r="G8" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="H8" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="I8" s="25" t="str">
+      <c r="G8" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="I8" s="20" t="str">
         <f>ConjuntoResidencial!I7</f>
         <v>4-Bolivar</v>
       </c>
-      <c r="J8" s="26" t="str">
+      <c r="J8" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Cancha de Fútbol-4-Bolivar</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="29">
+    <row r="9" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+      <c r="A9" s="22">
         <v>6</v>
       </c>
-      <c r="B9" s="29" t="s">
-        <v>120</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="E9" s="29">
+      <c r="B9" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="E9" s="22">
         <v>20</v>
       </c>
-      <c r="F9" s="29">
+      <c r="F9" s="22">
         <v>45</v>
       </c>
-      <c r="G9" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="H9" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="I9" s="25" t="str">
+      <c r="G9" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="I9" s="20" t="str">
         <f>ConjuntoResidencial!I5</f>
         <v>2-Natural</v>
       </c>
-      <c r="J9" s="26" t="str">
+      <c r="J9" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Piscina Pequeña-2-Natural</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="29">
+    <row r="10" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A10" s="22">
         <v>7</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="C10" s="25" t="s">
-        <v>138</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="E10" s="29">
+      <c r="D10" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="E10" s="22">
         <v>15</v>
       </c>
-      <c r="F10" s="29">
+      <c r="F10" s="22">
         <v>2</v>
       </c>
-      <c r="G10" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="H10" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="I10" s="25" t="str">
+      <c r="G10" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="H10" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="I10" s="20" t="str">
         <f>ConjuntoResidencial!I8</f>
         <v>5-Ventus</v>
       </c>
-      <c r="J10" s="26" t="str">
+      <c r="J10" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Zona BBQ-5-Ventus</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="A11" s="29">
+    <row r="11" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A11" s="22">
         <v>8</v>
       </c>
-      <c r="B11" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="D11" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="E11" s="29">
+      <c r="B11" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="E11" s="22">
         <v>4</v>
       </c>
-      <c r="F11" s="29">
+      <c r="F11" s="22">
         <v>60</v>
       </c>
-      <c r="G11" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="H11" s="30" t="s">
-        <v>128</v>
-      </c>
-      <c r="I11" s="25" t="str">
+      <c r="G11" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="I11" s="20" t="str">
         <f>ConjuntoResidencial!I6</f>
         <v>3-Riogrande</v>
       </c>
-      <c r="J11" s="26" t="str">
+      <c r="J11" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Cancha de Tenis-3-Riogrande</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="29">
+    <row r="12" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="A12" s="22">
         <v>9</v>
       </c>
-      <c r="B12" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>140</v>
-      </c>
-      <c r="D12" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="E12" s="29">
+      <c r="B12" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="E12" s="22">
         <v>10</v>
       </c>
-      <c r="F12" s="29">
+      <c r="F12" s="22">
         <v>90</v>
       </c>
-      <c r="G12" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="H12" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="I12" s="25" t="str">
+      <c r="G12" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="H12" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="I12" s="20" t="str">
         <f>ConjuntoResidencial!I4</f>
         <v>1-Forest apartamentos</v>
       </c>
-      <c r="J12" s="26" t="str">
+      <c r="J12" s="21" t="str">
         <f t="shared" si="0"/>
         <v>Sala de Juegos-1-Forest apartamentos</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="21"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="17"/>
-      <c r="H13" s="17"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="21"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="17"/>
-      <c r="H14" s="17"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="21"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="17"/>
-      <c r="H15" s="17"/>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="18"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="16"/>
+      <c r="H13" s="16"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C14" s="17"/>
+      <c r="D14" s="16"/>
+      <c r="H14" s="16"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C15" s="17"/>
+      <c r="D15" s="16"/>
+      <c r="H15" s="16"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Doo-Doc/Nueva Version Victus/MuestreoDatos/ConjuntosResidenciales Muestro Datos.xlsx
+++ b/Doo-Doc/Nueva Version Victus/MuestreoDatos/ConjuntosResidenciales Muestro Datos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Music\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\DOO 2024 BD\DOO\victus-doc\Doo-Doc\Nueva Version Victus\MuestreoDatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F51CCAB1-80B3-46A6-99AD-F559C35FD6A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8D53037-FBB1-4E26-AA7D-9E4BC50D583C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" firstSheet="1" activeTab="5" xr2:uid="{46B52760-6E94-4759-BDEF-A2400BC5A0BB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{46B52760-6E94-4759-BDEF-A2400BC5A0BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Objetos de dominio" sheetId="1" r:id="rId1"/>
@@ -88,9 +88,6 @@
     <t>Es un dato que representa al nombre de un conjunto residencial</t>
   </si>
   <si>
-    <t>Es un dato que representa el formato de texto de una dirección.</t>
-  </si>
-  <si>
     <t>Es un dato que representa la descripción que tiene el conjunto residencial para ser identificado con palabras.</t>
   </si>
   <si>
@@ -238,9 +235,6 @@
     <t>Es un dato que representa el número de contacto de la portería de una conjunto residencial</t>
   </si>
   <si>
-    <t>Es un dato que representa el municipio dónde se encuentra un conjunto residencial.</t>
-  </si>
-  <si>
     <t>Es un dato que representa el departamento dónde se encuentra el conjunto residencial.</t>
   </si>
   <si>
@@ -518,13 +512,19 @@
   </si>
   <si>
     <t>normas</t>
+  </si>
+  <si>
+    <t>Es un dato que representa el formato de texto de una dirección de un conjunto residencial.</t>
+  </si>
+  <si>
+    <t>Es un dato que representa el ciudad dónde se encuentra un conjunto residencial.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -564,6 +564,38 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF4EA72E"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF4EA72E"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -623,7 +655,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -670,6 +702,16 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1012,13 +1054,13 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" customWidth="1"/>
-    <col min="2" max="2" width="58.28515625" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" customWidth="1"/>
+    <col min="2" max="2" width="58.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1026,15 +1068,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -1042,28 +1084,28 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="6" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B6" s="4" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1086,15 +1128,15 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="23.85546875" customWidth="1"/>
-    <col min="5" max="5" width="25.85546875" customWidth="1"/>
-    <col min="6" max="6" width="23.85546875" customWidth="1"/>
-    <col min="7" max="7" width="47.85546875" customWidth="1"/>
+    <col min="4" max="4" width="23.88671875" customWidth="1"/>
+    <col min="5" max="5" width="25.88671875" customWidth="1"/>
+    <col min="6" max="6" width="23.88671875" customWidth="1"/>
+    <col min="7" max="7" width="47.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
         <v>6</v>
       </c>
@@ -1104,184 +1146,184 @@
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>144</v>
-      </c>
       <c r="G2" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>148</v>
-      </c>
       <c r="F3" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>40</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>41</v>
       </c>
       <c r="D4" s="12">
         <v>3053456459</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G4" s="13" t="str">
         <f>B4&amp;"-"&amp;D4&amp;"-"&amp;E4</f>
         <v>Carlos-3053456459-carlos@example.com</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>42</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>43</v>
       </c>
       <c r="D5" s="1">
         <v>3584418688</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G5" s="13" t="str">
         <f t="shared" ref="G5:G9" si="0">B5&amp;"-"&amp;D5&amp;"-"&amp;E5</f>
         <v>Sara-3584418688-sara@gmail.com</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D6" s="1">
         <v>3209876543</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G6" s="13" t="str">
         <f t="shared" si="0"/>
         <v>María -3209876543-maria.gonzalez@example.com</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D7" s="1">
         <v>3156789012</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G7" s="13" t="str">
         <f>B7&amp;"-"&amp;D7&amp;"-"&amp;E7</f>
         <v>Laura-3156789012-laura.martinez@example.com</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D8" s="1">
         <v>3007654321</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G8" s="13" t="str">
         <f t="shared" si="0"/>
         <v>Andrés-3007654321-andres.lopez@example.com</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D9" s="1">
         <v>3182345678</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G9" s="13" t="str">
         <f t="shared" si="0"/>
@@ -1307,19 +1349,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CCBB1F3-C6CB-4282-9EE1-3BEE3EA280EE}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="6" width="21.7109375" customWidth="1"/>
+    <col min="2" max="6" width="21.6640625" customWidth="1"/>
     <col min="7" max="7" width="36" customWidth="1"/>
-    <col min="8" max="8" width="43.85546875" customWidth="1"/>
-    <col min="9" max="9" width="34.28515625" customWidth="1"/>
+    <col min="8" max="8" width="43.88671875" customWidth="1"/>
+    <col min="9" max="9" width="34.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
         <v>6</v>
       </c>
@@ -1332,56 +1374,56 @@
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:9" s="28" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H2" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="I2" s="27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>152</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>5</v>
@@ -1390,7 +1432,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>1</v>
       </c>
@@ -1401,10 +1443,10 @@
         <v>10</v>
       </c>
       <c r="D4" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>61</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>62</v>
       </c>
       <c r="F4" s="9">
         <v>3053451564</v>
@@ -1421,27 +1463,27 @@
         <v>1-Forest apartamentos</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>38</v>
-      </c>
       <c r="D5" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F5" s="9">
         <v>3057477789</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H5" s="15" t="str">
         <f>Administrador!G5</f>
@@ -1452,27 +1494,27 @@
         <v>2-Natural</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F6" s="1">
         <v>3001234567</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H6" s="15" t="str">
         <f>Administrador!G6</f>
@@ -1483,27 +1525,27 @@
         <v>3-Riogrande</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F7" s="1">
         <v>3207654321</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H7" s="15" t="str">
         <f>Administrador!G7</f>
@@ -1514,27 +1556,27 @@
         <v>4-Bolivar</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F8" s="1">
         <v>3109876543</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H8" s="15" t="str">
         <f>Administrador!G8</f>
@@ -1571,15 +1613,15 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" customWidth="1"/>
-    <col min="5" max="5" width="37.140625" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" customWidth="1"/>
+    <col min="5" max="5" width="37.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
         <v>6</v>
       </c>
@@ -1588,32 +1630,32 @@
       <c r="D1" s="24"/>
       <c r="E1" s="6"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>2</v>
@@ -1622,66 +1664,66 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E4" s="10" t="str">
         <f>_xlfn.CONCAT(B4,C4," de ",D4)</f>
         <v>Torre1 de 1-Forest apartamentos</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E5" s="10" t="str">
         <f t="shared" ref="E5:E12" si="0">_xlfn.CONCAT(B5,C5," de ",D5)</f>
         <v>Bloque1 de 1-Forest apartamentos</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C6" s="1">
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E6" s="10" t="str">
         <f t="shared" si="0"/>
         <v>Torre2 de 1-Forest apartamentos</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C7" s="1">
         <v>2</v>
@@ -1695,12 +1737,12 @@
         <v>Bloque2 de 2-Natural</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C8" s="1">
         <v>4</v>
@@ -1714,12 +1756,12 @@
         <v>Bloque4 de 1-Forest apartamentos</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C9" s="1">
         <v>2</v>
@@ -1733,12 +1775,12 @@
         <v>Bloque2 de 3-Riogrande</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C10" s="1">
         <v>5</v>
@@ -1752,12 +1794,12 @@
         <v>Bloque5 de 5-Ventus</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>8</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C11" s="1">
         <v>7</v>
@@ -1771,12 +1813,12 @@
         <v>Torre7 de 4-Bolivar</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>9</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C12" s="1">
         <v>3</v>
@@ -1825,16 +1867,16 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
-    <col min="4" max="4" width="31.42578125" customWidth="1"/>
-    <col min="5" max="5" width="49.42578125" customWidth="1"/>
+    <col min="1" max="1" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="31.44140625" customWidth="1"/>
+    <col min="5" max="5" width="49.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
         <v>6</v>
       </c>
@@ -1843,46 +1885,46 @@
       <c r="D1" s="24"/>
       <c r="E1" s="6"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>133</v>
-      </c>
       <c r="E2" s="7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C4" s="1">
         <v>102</v>
@@ -1896,12 +1938,12 @@
         <v>Apartamento '102' de Torre1 de 1-Forest apartamentos</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C5" s="1">
         <v>10</v>
@@ -1915,12 +1957,12 @@
         <v>Casa '10' de Bloque1 de 1-Forest apartamentos</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6" s="1">
         <v>304</v>
@@ -1934,12 +1976,12 @@
         <v>Apartamento '304' de Torre2 de 1-Forest apartamentos</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C7" s="1">
         <v>11</v>
@@ -1953,12 +1995,12 @@
         <v>Casa '11' de Bloque2 de 2-Natural</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C8" s="1">
         <v>423</v>
@@ -1972,12 +2014,12 @@
         <v>Apartamento '423' de Bloque5 de 5-Ventus</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C9" s="1">
         <v>1204</v>
@@ -1991,12 +2033,12 @@
         <v>Apartamento '1204' de Torre7 de 4-Bolivar</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C10" s="1">
         <v>5</v>
@@ -2010,12 +2052,12 @@
         <v>Casa '5' de Bloque2 de 2-Natural</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>8</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C11" s="1">
         <v>17</v>
@@ -2029,12 +2071,12 @@
         <v>Casa '17' de Bloque3 de 3-Riogrande</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>9</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C12" s="1">
         <v>514</v>
@@ -2048,12 +2090,12 @@
         <v>Apartamento '514' de Bloque2 de 3-Riogrande</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>10</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C13" s="1">
         <v>23</v>
@@ -2067,14 +2109,14 @@
         <v>Casa '23' de Bloque2 de 2-Natural</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -2103,22 +2145,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F3E3BD9-49ED-471B-BA3A-A84E923CE558}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="21.7109375" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
-    <col min="5" max="7" width="21.7109375" customWidth="1"/>
+    <col min="5" max="7" width="21.6640625" customWidth="1"/>
     <col min="8" max="8" width="15" customWidth="1"/>
-    <col min="9" max="9" width="23.7109375" customWidth="1"/>
-    <col min="10" max="10" width="33.140625" customWidth="1"/>
+    <col min="9" max="9" width="23.6640625" customWidth="1"/>
+    <col min="10" max="10" width="33.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>6</v>
       </c>
@@ -2132,62 +2174,62 @@
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="7" t="s">
+    <row r="2" spans="1:10" s="26" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="E2" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="G2" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="7" t="s">
+      <c r="H2" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="H2" s="7" t="s">
+      <c r="I2" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J2" s="25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>158</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>2</v>
@@ -2196,7 +2238,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="19">
         <v>1</v>
       </c>
@@ -2204,10 +2246,10 @@
         <v>12</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4" s="19">
         <v>50</v>
@@ -2216,10 +2258,10 @@
         <v>60</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I4" s="20" t="str">
         <f>ConjuntoResidencial!$I$4</f>
@@ -2230,18 +2272,18 @@
         <v>Piscina-1-Forest apartamentos</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="22">
         <v>2</v>
       </c>
       <c r="B5" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5" s="23" t="s">
         <v>23</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="D5" s="23" t="s">
-        <v>24</v>
       </c>
       <c r="E5" s="22">
         <v>20</v>
@@ -2250,10 +2292,10 @@
         <v>120</v>
       </c>
       <c r="G5" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H5" s="23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I5" s="20" t="str">
         <f>ConjuntoResidencial!$I$4</f>
@@ -2264,18 +2306,18 @@
         <v>Gimnasio-1-Forest apartamentos</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="22">
         <v>3</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6" s="22">
         <v>15</v>
@@ -2284,10 +2326,10 @@
         <v>1</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I6" s="20" t="str">
         <f>ConjuntoResidencial!$I$5</f>
@@ -2298,18 +2340,18 @@
         <v>piscinaAdultos-2-Natural</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" s="22">
         <v>4</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E7" s="22">
         <v>100</v>
@@ -2318,10 +2360,10 @@
         <v>4</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H7" s="23" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I7" s="20" t="str">
         <f>ConjuntoResidencial!I6</f>
@@ -2332,18 +2374,18 @@
         <v>Salón de Eventos-3-Riogrande</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A8" s="22">
         <v>5</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E8" s="22">
         <v>22</v>
@@ -2352,10 +2394,10 @@
         <v>90</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H8" s="23" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I8" s="20" t="str">
         <f>ConjuntoResidencial!I7</f>
@@ -2366,18 +2408,18 @@
         <v>Cancha de Fútbol-4-Bolivar</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A9" s="22">
         <v>6</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E9" s="22">
         <v>20</v>
@@ -2386,10 +2428,10 @@
         <v>45</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H9" s="23" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I9" s="20" t="str">
         <f>ConjuntoResidencial!I5</f>
@@ -2400,18 +2442,18 @@
         <v>Piscina Pequeña-2-Natural</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A10" s="22">
         <v>7</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E10" s="22">
         <v>15</v>
@@ -2420,10 +2462,10 @@
         <v>2</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H10" s="23" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I10" s="20" t="str">
         <f>ConjuntoResidencial!I8</f>
@@ -2434,18 +2476,18 @@
         <v>Zona BBQ-5-Ventus</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A11" s="22">
         <v>8</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E11" s="22">
         <v>4</v>
@@ -2454,10 +2496,10 @@
         <v>60</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H11" s="23" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I11" s="20" t="str">
         <f>ConjuntoResidencial!I6</f>
@@ -2468,18 +2510,18 @@
         <v>Cancha de Tenis-3-Riogrande</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A12" s="22">
         <v>9</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E12" s="22">
         <v>10</v>
@@ -2488,10 +2530,10 @@
         <v>90</v>
       </c>
       <c r="G12" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H12" s="23" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I12" s="20" t="str">
         <f>ConjuntoResidencial!I4</f>
@@ -2502,18 +2544,18 @@
         <v>Sala de Juegos-1-Forest apartamentos</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B13" s="18"/>
       <c r="C13" s="17"/>
       <c r="D13" s="16"/>
       <c r="H13" s="16"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C14" s="17"/>
       <c r="D14" s="16"/>
       <c r="H14" s="16"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C15" s="17"/>
       <c r="D15" s="16"/>
       <c r="H15" s="16"/>

--- a/Doo-Doc/Nueva Version Victus/MuestreoDatos/ConjuntosResidenciales Muestro Datos.xlsx
+++ b/Doo-Doc/Nueva Version Victus/MuestreoDatos/ConjuntosResidenciales Muestro Datos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\DOO 2024 BD\DOO\victus-doc\Doo-Doc\Nueva Version Victus\MuestreoDatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8D53037-FBB1-4E26-AA7D-9E4BC50D583C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{969333AD-F420-4B20-BC89-76A62CB31238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{46B52760-6E94-4759-BDEF-A2400BC5A0BB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{46B52760-6E94-4759-BDEF-A2400BC5A0BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Objetos de dominio" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,9 @@
     <sheet name="Inmueble" sheetId="16" r:id="rId5"/>
     <sheet name="ZonaComun" sheetId="4" r:id="rId6"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId7"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -41,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="165">
   <si>
     <t>Nombre</t>
   </si>
@@ -55,9 +58,6 @@
     <t>ZonaComun</t>
   </si>
   <si>
-    <t>Corresponde a las zonas comunes que pueden ser reservadas por los residentes.</t>
-  </si>
-  <si>
     <t>Administrador</t>
   </si>
   <si>
@@ -88,24 +88,15 @@
     <t>Es un dato que representa al nombre de un conjunto residencial</t>
   </si>
   <si>
-    <t>Es un dato que representa la descripción que tiene el conjunto residencial para ser identificado con palabras.</t>
-  </si>
-  <si>
     <t>No es posible tener más de una zona común con el mismo nombre para un mismo conjunto residencial.</t>
   </si>
   <si>
     <t>Es un espacio deportivo y lúdico</t>
   </si>
   <si>
-    <t>Imagen</t>
-  </si>
-  <si>
     <t>Para reservar la psicina debe contar con 1 dia de anterioridad</t>
   </si>
   <si>
-    <t>Combinación única</t>
-  </si>
-  <si>
     <t>No es posible tener más de un conjunto residencial con el mismo nombre</t>
   </si>
   <si>
@@ -148,9 +139,6 @@
     <t>contraseña</t>
   </si>
   <si>
-    <t>1-Forest apartamentos</t>
-  </si>
-  <si>
     <t>Natural</t>
   </si>
   <si>
@@ -193,18 +181,6 @@
     <t>Inmueble</t>
   </si>
   <si>
-    <t>Corresponde la conjunto residencial dónde viven los residentes y dónde se encuentran las diferentes zonas comunes mas las zonasInmuebles que hay.</t>
-  </si>
-  <si>
-    <t>Corresponde a la persona que puede gestionar a los residentes, las zonas comunes mas programar una agenda para esas zonas y decidir cuando poner NoDisponible una agenda o un turno en especifico.</t>
-  </si>
-  <si>
-    <t>Corresponde a las zonas donde habitan los residentes como torres de apartamentos , bloques de casas etc.</t>
-  </si>
-  <si>
-    <t>Corresponde a los inmuebles donde viven los residentes como apartamentos, casas Etc.</t>
-  </si>
-  <si>
     <t>tipoInmueble</t>
   </si>
   <si>
@@ -220,9 +196,6 @@
     <t>Hora</t>
   </si>
   <si>
-    <t>No puede haber más de un administrador con el mismo correo electrónico y el mismo numero de contacto.</t>
-  </si>
-  <si>
     <t>Rionegro</t>
   </si>
   <si>
@@ -232,9 +205,6 @@
     <t>Medellín</t>
   </si>
   <si>
-    <t>Es un dato que representa el número de contacto de la portería de una conjunto residencial</t>
-  </si>
-  <si>
     <t>Es un dato que representa el departamento dónde se encuentra el conjunto residencial.</t>
   </si>
   <si>
@@ -418,30 +388,15 @@
     <t>Este atributo hace referencia a la imagen que va a acompañar a la zona común para mayor facilidad a la hora de identificarlo.</t>
   </si>
   <si>
-    <t>Este es le dato que representa el tiempo de uso por numero entero de residente</t>
-  </si>
-  <si>
-    <t>Es un dato que representa la unidad de la cual el tiempo de va a definir</t>
-  </si>
-  <si>
     <t>Es un dato que hace que cada inmueble sea único.</t>
   </si>
   <si>
     <t>Es un dato que representa al nombre de un inmueble Casa, apartamento ETC.</t>
   </si>
   <si>
-    <t>Es te atributo representa el numero especifico del inmueble.</t>
-  </si>
-  <si>
-    <t>numeroDeVivienda</t>
-  </si>
-  <si>
     <t>Es un dato que representa la zona inmueble al cual pertenece el inmueble.</t>
   </si>
   <si>
-    <t>No es posible tener mas de un tipo inmueble que tenga el mismo numero de vivienda mas la misma zona inmueble.</t>
-  </si>
-  <si>
     <t>Es un dato que hace que cada zona imueble sea única.</t>
   </si>
   <si>
@@ -454,9 +409,6 @@
     <t>Es un dato que representa el conjunto residencial al cual pertenece la zona inmueble.</t>
   </si>
   <si>
-    <t>No es posible tener más de una zona inmueble con el mismo nombre para un mismo conjunto residencial.</t>
-  </si>
-  <si>
     <t>Este es un dato de tipo Administrador que representa el administrador del conjunto residencial.</t>
   </si>
   <si>
@@ -478,12 +430,6 @@
     <t>apellido</t>
   </si>
   <si>
-    <t>numeroDeContacto</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
     <t>dirección</t>
   </si>
   <si>
@@ -496,21 +442,9 @@
     <t>descripcion</t>
   </si>
   <si>
-    <t>contactoDePorteria</t>
-  </si>
-  <si>
     <t>descripción</t>
   </si>
   <si>
-    <t>capacidadDePersonas</t>
-  </si>
-  <si>
-    <t>tiempoDeUso</t>
-  </si>
-  <si>
-    <t>unidadDeTiempoDeUso</t>
-  </si>
-  <si>
     <t>normas</t>
   </si>
   <si>
@@ -518,13 +452,100 @@
   </si>
   <si>
     <t>Es un dato que representa el ciudad dónde se encuentra un conjunto residencial.</t>
+  </si>
+  <si>
+    <t>contactoRecepcion</t>
+  </si>
+  <si>
+    <t>Es un dato que representa el número de contacto de una recepcion de un conjunto residencial</t>
+  </si>
+  <si>
+    <t>Es un dato que representa la descripción general que tiene el conjunto residencial .</t>
+  </si>
+  <si>
+    <t>Combinación única 2</t>
+  </si>
+  <si>
+    <t>No es posible tener más de un conjunto residencial con el mismo contactoRecepcion</t>
+  </si>
+  <si>
+    <t>numeroContacto</t>
+  </si>
+  <si>
+    <t>correo</t>
+  </si>
+  <si>
+    <t>tipoDocumento</t>
+  </si>
+  <si>
+    <t>numeroDocumento</t>
+  </si>
+  <si>
+    <t>Tarjeta de identidad</t>
+  </si>
+  <si>
+    <t>cedula</t>
+  </si>
+  <si>
+    <t>pasaporte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pasaporte </t>
+  </si>
+  <si>
+    <t>Este dato representa el tipo de documento que tiene  un administrador.</t>
+  </si>
+  <si>
+    <t>Este dato representa el numero del documento de un administrador.</t>
+  </si>
+  <si>
+    <t>Combinación única 3</t>
+  </si>
+  <si>
+    <t>No puede haber más de un administrador con el mismo tipo de documento y el mismo numero de documento.</t>
+  </si>
+  <si>
+    <t>No puede haber más de un administrador con el mismo numero de contacto.</t>
+  </si>
+  <si>
+    <t>No puede haber más de un administrador con el mismo correo electrónico .</t>
+  </si>
+  <si>
+    <t>No es posible tener más de un tipo zona inmueble con el mismo numero zona inmueble  para un mismo conjunto residencial.</t>
+  </si>
+  <si>
+    <t>numeroVivienda</t>
+  </si>
+  <si>
+    <t>Este atributo representa el número especifico del inmueble.</t>
+  </si>
+  <si>
+    <t>No es posible tener mas de un tipo inmueble que tenga el mismo número de vivienda más la misma zona inmueble.</t>
+  </si>
+  <si>
+    <t>capacidadPersonas</t>
+  </si>
+  <si>
+    <t>tiempoUso</t>
+  </si>
+  <si>
+    <t>unidadTiempoUso</t>
+  </si>
+  <si>
+    <t>Es un dato que representa la unidad de tiempo de uso de una zona comun para un residente.</t>
+  </si>
+  <si>
+    <t>imagen</t>
+  </si>
+  <si>
+    <t>Este es le dato que representa el tiempo de uso por numero entero de un residente</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -557,21 +578,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <color rgb="FF4EA72E"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FF4EA72E"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -600,8 +606,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -626,8 +640,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -650,12 +670,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -667,7 +700,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -700,19 +732,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -729,6 +776,62 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Valores"/>
+      <sheetName val="Modelo Dominio Anemico Contexto"/>
+      <sheetName val="Listado Objetos Dominio"/>
+      <sheetName val="ConjuntoResidencial"/>
+      <sheetName val="ZonaComun"/>
+      <sheetName val="Administrador"/>
+      <sheetName val="ZonaInmueble"/>
+      <sheetName val="Inmueble"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2">
+        <row r="3">
+          <cell r="B3" t="str">
+            <v>Objeto de dominio que representa cada una de las comunidades habitacionales organizadas en un sistema. Abarca la totalidad de los elementos que componen el conjunto, desde las unidades habitacionales individuales (inmuebles) hasta las zonas comunes.</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4" t="str">
+            <v>Objeto de dominio que representa a cada una de las zonas comunes que se encuentran dentro de un conjunto residencial para que los residentes puedan reservar esos espacios y poder usarlos.</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5" t="str">
+            <v>Objeto de dominio que representa el Administrador encargado de hacer la creación o gestión de las zonas comunes y la gestión de residentes y sus respectivas reservas en caso de ser necesario.</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6" t="str">
+            <v>Objeto de dominio que representa una zona de inmuebles en un conjunto residencial se refiere a una agrupación de unidades habitacionales (torre, bloque, lote) que comparten una ubicación fisica y caracteristicas comunes dentro del conjunto.</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="B7" t="str">
+            <v>Objeto de dominio que representa un imnueble dentro de una zona de inmuebles en un conjunto residencial describe las caracteristicas especificasde una unidad habitacional en el contexto de una agrupación más amplia, como una torre, bloque o área específica, que es representada por su zona inmueble.</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1050,8 +1153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3601F120-B689-4608-A7AB-FD2F4140FEAD}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1068,53 +1171,58 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="63.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="4" t="str">
+        <f>'[1]Listado Objetos Dominio'!$B$3</f>
+        <v>Objeto de dominio que representa cada una de las comunidades habitacionales organizadas en un sistema. Abarca la totalidad de los elementos que componen el conjunto, desde las unidades habitacionales individuales (inmuebles) hasta las zonas comunes.</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>4</v>
+      <c r="B3" s="4" t="str">
+        <f>'[1]Listado Objetos Dominio'!$B$4</f>
+        <v>Objeto de dominio que representa a cada una de las zonas comunes que se encuentran dentro de un conjunto residencial para que los residentes puedan reservar esos espacios y poder usarlos.</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="B4" s="5" t="str">
+        <f>'[1]Listado Objetos Dominio'!$B$5</f>
+        <v>Objeto de dominio que representa el Administrador encargado de hacer la creación o gestión de las zonas comunes y la gestión de residentes y sus respectivas reservas en caso de ser necesario.</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="B5" s="4" t="str">
+        <f>'[1]Listado Objetos Dominio'!$B$6</f>
+        <v>Objeto de dominio que representa una zona de inmuebles en un conjunto residencial se refiere a una agrupación de unidades habitacionales (torre, bloque, lote) que comparten una ubicación fisica y caracteristicas comunes dentro del conjunto.</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="72" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>53</v>
+        <v>44</v>
+      </c>
+      <c r="B6" s="4" t="str">
+        <f>'[1]Listado Objetos Dominio'!$B$7</f>
+        <v>Objeto de dominio que representa un imnueble dentro de una zona de inmuebles en un conjunto residencial describe las caracteristicas especificasde una unidad habitacional en el contexto de una agrupación más amplia, como una torre, bloque o área específica, que es representada por su zona inmueble.</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" location="ConjuntoResidencial!A1" display="ConjuntoResidencial" xr:uid="{D0048307-89EE-4AA5-9AB4-3B1D102BE25E}"/>
-    <hyperlink ref="A3" location="Zonainmueble!A1" display="ZonaComun" xr:uid="{FC7C1AA5-A8DF-4420-A7B0-922F74CE2B62}"/>
+    <hyperlink ref="A3" location="ZonaComun!A1" display="ZonaComun" xr:uid="{FC7C1AA5-A8DF-4420-A7B0-922F74CE2B62}"/>
     <hyperlink ref="A4" location="Administrador!A1" display="Administrador" xr:uid="{B710B2E9-3802-4D37-8286-1D82A855E5A3}"/>
     <hyperlink ref="A5" location="Zonainmueble!A1" display="ZonaInmueble" xr:uid="{A38EA035-AAF7-4A33-B542-4B528AF3BBC4}"/>
-    <hyperlink ref="A6" location="Zonainmueble!A1" display="Inmueble" xr:uid="{9B95D934-BD10-4DA6-9270-D48A389ACDE8}"/>
+    <hyperlink ref="A6" location="Inmueble!A1" display="Inmueble" xr:uid="{9B95D934-BD10-4DA6-9270-D48A389ACDE8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1122,224 +1230,347 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF3124B0-BF43-4D8E-8B80-2D2432DEB873}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="23.88671875" customWidth="1"/>
-    <col min="5" max="5" width="25.88671875" customWidth="1"/>
-    <col min="6" max="6" width="23.88671875" customWidth="1"/>
-    <col min="7" max="7" width="47.88671875" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" customWidth="1"/>
+    <col min="7" max="7" width="25.88671875" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" customWidth="1"/>
+    <col min="9" max="9" width="34.33203125" customWidth="1"/>
+    <col min="10" max="10" width="21.21875" customWidth="1"/>
+    <col min="11" max="11" width="27.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="7" t="s">
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+    </row>
+    <row r="2" spans="1:11" s="30" customFormat="1" ht="73.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="H2" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="I2" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="J2" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="K2" s="28" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="K3" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
+        <v>1</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E4" s="8">
+        <v>1017245136</v>
+      </c>
+      <c r="F4" s="11">
+        <v>3053456459</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="I4" s="12" t="str">
+        <f>D4&amp;"-"&amp;E4</f>
+        <v>Tarjeta de identidad-1017245136</v>
+      </c>
+      <c r="J4" s="12">
+        <f>F4</f>
+        <v>3053456459</v>
+      </c>
+      <c r="K4" s="12" t="str">
+        <f>G4</f>
+        <v>carlos@example.com</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <v>2</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="9">
-        <v>1</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="12">
-        <v>3053456459</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F4" s="9" t="s">
+      <c r="E5" s="8">
+        <v>5987645832</v>
+      </c>
+      <c r="F5" s="1">
+        <v>3584418688</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I5" s="12" t="str">
+        <f t="shared" ref="I5:K9" si="0">D5&amp;"-"&amp;E5</f>
+        <v>cedula-5987645832</v>
+      </c>
+      <c r="J5" s="12">
+        <f t="shared" ref="J5:J9" si="1">F5</f>
+        <v>3584418688</v>
+      </c>
+      <c r="K5" s="12" t="str">
+        <f t="shared" ref="K5:K9" si="2">G5</f>
+        <v>sara@gmail.com</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
+        <v>3</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="E6" s="8">
+        <v>8574693214</v>
+      </c>
+      <c r="F6" s="1">
+        <v>3209876543</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I6" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>cedula-8574693214</v>
+      </c>
+      <c r="J6" s="12">
+        <f t="shared" si="1"/>
+        <v>3209876543</v>
+      </c>
+      <c r="K6" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>maria.gonzalez@example.com</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E7" s="1">
+        <v>5789687456</v>
+      </c>
+      <c r="F7" s="1">
+        <v>3156789012</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I7" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>cedula-5789687456</v>
+      </c>
+      <c r="J7" s="12">
+        <f t="shared" si="1"/>
+        <v>3156789012</v>
+      </c>
+      <c r="K7" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>laura.martinez@example.com</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1112587693</v>
+      </c>
+      <c r="F8" s="1">
+        <v>3007654321</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I8" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>pasaporte-1112587693</v>
+      </c>
+      <c r="J8" s="12">
+        <f t="shared" si="1"/>
+        <v>3007654321</v>
+      </c>
+      <c r="K8" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>andres.lopez@example.com</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E9" s="1">
+        <v>8574693218</v>
+      </c>
+      <c r="F9" s="1">
+        <v>3182345678</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="G4" s="13" t="str">
-        <f>B4&amp;"-"&amp;D4&amp;"-"&amp;E4</f>
-        <v>Carlos-3053456459-carlos@example.com</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="9">
-        <v>2</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="1">
-        <v>3584418688</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G5" s="13" t="str">
-        <f t="shared" ref="G5:G9" si="0">B5&amp;"-"&amp;D5&amp;"-"&amp;E5</f>
-        <v>Sara-3584418688-sara@gmail.com</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="9">
-        <v>3</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" s="1">
-        <v>3209876543</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G6" s="13" t="str">
+      <c r="H9" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I9" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>María -3209876543-maria.gonzalez@example.com</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D7" s="1">
-        <v>3156789012</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G7" s="13" t="str">
-        <f>B7&amp;"-"&amp;D7&amp;"-"&amp;E7</f>
-        <v>Laura-3156789012-laura.martinez@example.com</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D8" s="1">
-        <v>3007654321</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G8" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Andrés-3007654321-andres.lopez@example.com</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D9" s="1">
+        <v>pasaporte -8574693218</v>
+      </c>
+      <c r="J9" s="12">
+        <f t="shared" si="1"/>
         <v>3182345678</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G9" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>Sofía-3182345678-sofia.torres@example.com</v>
+      <c r="K9" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>sofia.torres@example.com</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E4" r:id="rId1" xr:uid="{5AD00C32-6329-4CFA-B536-741250640266}"/>
-    <hyperlink ref="E5" r:id="rId2" xr:uid="{9C9CCAC3-14F6-486E-9A86-67C2D1CAFF52}"/>
+    <hyperlink ref="G4" r:id="rId1" xr:uid="{5AD00C32-6329-4CFA-B536-741250640266}"/>
+    <hyperlink ref="G5" r:id="rId2" xr:uid="{9C9CCAC3-14F6-486E-9A86-67C2D1CAFF52}"/>
     <hyperlink ref="A1" location="Objetos de dominio!A1" display="Objetos de dominio!A1" xr:uid="{C1ED9137-81DC-43DF-B6AA-ED6EFD23837F}"/>
-    <hyperlink ref="A1:D1" location="'Objetos de dominio'!A1" display="&lt;&lt;&lt;&lt;&lt;&lt; Volver al inicio" xr:uid="{C5E3491F-ED23-4E33-A420-E536F5397D68}"/>
-    <hyperlink ref="E7" r:id="rId3" xr:uid="{8AA42C50-8743-4319-B0E5-4D686BB0533B}"/>
+    <hyperlink ref="A1:F1" location="'Objetos de dominio'!A1" display="&lt;&lt;&lt;&lt;&lt;&lt; Volver al inicio" xr:uid="{C5E3491F-ED23-4E33-A420-E536F5397D68}"/>
+    <hyperlink ref="G7" r:id="rId3" xr:uid="{8AA42C50-8743-4319-B0E5-4D686BB0533B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1347,10 +1578,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CCBB1F3-C6CB-4282-9EE1-3BEE3EA280EE}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1359,11 +1590,12 @@
     <col min="7" max="7" width="36" customWidth="1"/>
     <col min="8" max="8" width="43.88671875" customWidth="1"/>
     <col min="9" max="9" width="34.33203125" customWidth="1"/>
+    <col min="10" max="10" width="32.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
@@ -1373,225 +1605,252 @@
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
-    </row>
-    <row r="2" spans="1:9" s="28" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="27" t="s">
+      <c r="J1" s="6"/>
+    </row>
+    <row r="2" spans="1:10" s="29" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>157</v>
-      </c>
-      <c r="D2" s="27" t="s">
-        <v>158</v>
-      </c>
-      <c r="E2" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="F2" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="G2" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="27" t="s">
+      <c r="C2" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="G2" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="I2" s="27" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="H2" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="I2" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="28" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="H3" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="8" t="s">
+      <c r="J3" s="27" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
+        <v>1</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="9">
-        <v>1</v>
-      </c>
-      <c r="B4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="D4" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="8">
+        <v>3053451564</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="F4" s="9">
+      <c r="H4" s="14" t="str">
+        <f>Administrador!I4</f>
+        <v>Tarjeta de identidad-1017245136</v>
+      </c>
+      <c r="I4" s="9" t="str">
+        <f>_xlfn.CONCAT(B4)</f>
+        <v>Forest apartamentos</v>
+      </c>
+      <c r="J4" s="9">
+        <f>F4</f>
         <v>3053451564</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="15" t="str">
-        <f>Administrador!G4</f>
-        <v>Carlos-3053456459-carlos@example.com</v>
-      </c>
-      <c r="I4" s="10" t="str">
-        <f>_xlfn.CONCAT(A4,"-",B4)</f>
-        <v>1-Forest apartamentos</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="9">
+    </row>
+    <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
         <v>2</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="F5" s="9">
+      <c r="B5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="8">
         <v>3057477789</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="15" t="str">
-        <f>Administrador!G5</f>
-        <v>Sara-3584418688-sara@gmail.com</v>
-      </c>
-      <c r="I5" s="10" t="str">
-        <f>_xlfn.CONCAT(A5,"-",B5)</f>
-        <v>2-Natural</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="H5" s="14" t="str">
+        <f>Administrador!I5</f>
+        <v>cedula-5987645832</v>
+      </c>
+      <c r="I5" s="9" t="str">
+        <f t="shared" ref="I5:J8" si="0">_xlfn.CONCAT(B5)</f>
+        <v>Natural</v>
+      </c>
+      <c r="J5" s="9">
+        <f t="shared" ref="J5:J8" si="1">F5</f>
+        <v>3057477789</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>61</v>
+        <v>52</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="F6" s="1">
         <v>3001234567</v>
       </c>
-      <c r="G6" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="H6" s="15" t="str">
-        <f>Administrador!G6</f>
-        <v>María -3209876543-maria.gonzalez@example.com</v>
-      </c>
-      <c r="I6" s="10" t="str">
-        <f t="shared" ref="I6:I8" si="0">_xlfn.CONCAT(A6,"-",B6)</f>
-        <v>3-Riogrande</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G6" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" s="14" t="str">
+        <f>Administrador!I6</f>
+        <v>cedula-8574693214</v>
+      </c>
+      <c r="I6" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>Riogrande</v>
+      </c>
+      <c r="J6" s="9">
+        <f t="shared" si="1"/>
+        <v>3001234567</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="F7" s="1">
         <v>3207654321</v>
       </c>
-      <c r="G7" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="H7" s="15" t="str">
-        <f>Administrador!G7</f>
-        <v>Laura-3156789012-laura.martinez@example.com</v>
-      </c>
-      <c r="I7" s="10" t="str">
+      <c r="G7" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" s="14" t="str">
+        <f>Administrador!I7</f>
+        <v>cedula-5789687456</v>
+      </c>
+      <c r="I7" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>4-Bolivar</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+        <v>Bolivar</v>
+      </c>
+      <c r="J7" s="9">
+        <f t="shared" si="1"/>
+        <v>3207654321</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="F8" s="1">
         <v>3109876543</v>
       </c>
-      <c r="G8" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="H8" s="15" t="str">
-        <f>Administrador!G8</f>
-        <v>Andrés-3007654321-andres.lopez@example.com</v>
-      </c>
-      <c r="I8" s="10" t="str">
+      <c r="G8" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" s="14" t="str">
+        <f>Administrador!I8</f>
+        <v>pasaporte-1112587693</v>
+      </c>
+      <c r="I8" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>5-Ventus</v>
+        <v>Ventus</v>
+      </c>
+      <c r="J8" s="9">
+        <f t="shared" si="1"/>
+        <v>3109876543</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A1" location="Objetos de dominio!A1" display="Objetos de dominio!A1" xr:uid="{D64C3258-0F3E-431B-9317-C8728CDAC55D}"/>
     <hyperlink ref="I1" location="Objetos de dominio!A1" display="Objetos de dominio!A1" xr:uid="{AFF80FE2-F73C-488E-9508-D9E1A9B6135D}"/>
@@ -1600,6 +1859,7 @@
     <hyperlink ref="H3" location="Administrador!A1" display="Administrador" xr:uid="{8573C9AA-E4AB-4C12-80E7-A396F426EDA8}"/>
     <hyperlink ref="H5" location="Administrador!A4" display="Carlos-carlos@gmail.com" xr:uid="{B691C4A3-C438-46E2-9139-486F3E66B20C}"/>
     <hyperlink ref="H6:H8" location="Administrador!A4" display="Carlos-carlos@gmail.com" xr:uid="{59A54CB4-A9B8-4752-8A52-FC6023395723}"/>
+    <hyperlink ref="J1" location="Objetos de dominio!A1" display="Objetos de dominio!A1" xr:uid="{35BABAB9-C102-4814-8744-67A0CE83E82A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1610,7 +1870,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1623,213 +1883,216 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
       <c r="E1" s="6"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>137</v>
+    <row r="2" spans="1:5" s="31" customFormat="1" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>8</v>
+      <c r="E3" s="7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="9">
+      <c r="A4" s="8">
         <v>1</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="B4" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="32">
         <v>1</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="10" t="str">
-        <f>_xlfn.CONCAT(B4,C4," de ",D4)</f>
-        <v>Torre1 de 1-Forest apartamentos</v>
+      <c r="D4" s="3" t="str">
+        <f>ConjuntoResidencial!$I$4</f>
+        <v>Forest apartamentos</v>
+      </c>
+      <c r="E4" s="9" t="str">
+        <f>_xlfn.CONCAT(B4,C4," - ",D4)</f>
+        <v>Torre1 - Forest apartamentos</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="B5" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="32">
         <v>1</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="10" t="str">
-        <f t="shared" ref="E5:E12" si="0">_xlfn.CONCAT(B5,C5," de ",D5)</f>
-        <v>Bloque1 de 1-Forest apartamentos</v>
+      <c r="D5" s="3" t="str">
+        <f>ConjuntoResidencial!$I$4</f>
+        <v>Forest apartamentos</v>
+      </c>
+      <c r="E5" s="9" t="str">
+        <f t="shared" ref="E5:E12" si="0">_xlfn.CONCAT(B5,C5," - ",D5)</f>
+        <v>Bloque1 - Forest apartamentos</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="1">
+      <c r="B6" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="32">
         <v>2</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="10" t="str">
+      <c r="D6" s="3" t="str">
+        <f>ConjuntoResidencial!$I$4</f>
+        <v>Forest apartamentos</v>
+      </c>
+      <c r="E6" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>Torre2 de 1-Forest apartamentos</v>
+        <v>Torre2 - Forest apartamentos</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="1">
-        <v>2</v>
+      <c r="B7" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="32">
+        <v>1</v>
       </c>
       <c r="D7" s="3" t="str">
         <f>ConjuntoResidencial!$I$5</f>
-        <v>2-Natural</v>
-      </c>
-      <c r="E7" s="10" t="str">
+        <v>Natural</v>
+      </c>
+      <c r="E7" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>Bloque2 de 2-Natural</v>
+        <v>Bloque1 - Natural</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="1">
-        <v>4</v>
+      <c r="B8" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="32">
+        <v>1</v>
       </c>
       <c r="D8" s="3" t="str">
         <f>ConjuntoResidencial!I4</f>
-        <v>1-Forest apartamentos</v>
-      </c>
-      <c r="E8" s="10" t="str">
+        <v>Forest apartamentos</v>
+      </c>
+      <c r="E8" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>Bloque4 de 1-Forest apartamentos</v>
+        <v>Bloque1 - Forest apartamentos</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="1">
-        <v>2</v>
+      <c r="B9" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="32">
+        <v>1</v>
       </c>
       <c r="D9" s="3" t="str">
         <f>ConjuntoResidencial!I6</f>
-        <v>3-Riogrande</v>
-      </c>
-      <c r="E9" s="10" t="str">
+        <v>Riogrande</v>
+      </c>
+      <c r="E9" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>Bloque2 de 3-Riogrande</v>
+        <v>Bloque1 - Riogrande</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="1">
-        <v>5</v>
+      <c r="B10" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="32">
+        <v>1</v>
       </c>
       <c r="D10" s="3" t="str">
         <f>ConjuntoResidencial!I8</f>
-        <v>5-Ventus</v>
-      </c>
-      <c r="E10" s="10" t="str">
+        <v>Ventus</v>
+      </c>
+      <c r="E10" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>Bloque5 de 5-Ventus</v>
+        <v>Bloque1 - Ventus</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>8</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="1">
-        <v>7</v>
+      <c r="B11" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="32">
+        <v>1</v>
       </c>
       <c r="D11" s="3" t="str">
         <f>ConjuntoResidencial!I7</f>
-        <v>4-Bolivar</v>
-      </c>
-      <c r="E11" s="10" t="str">
+        <v>Bolivar</v>
+      </c>
+      <c r="E11" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>Torre7 de 4-Bolivar</v>
+        <v>Torre1 - Bolivar</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>9</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="1">
-        <v>3</v>
+      <c r="B12" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="32">
+        <v>2</v>
       </c>
       <c r="D12" s="3" t="str">
         <f>ConjuntoResidencial!I6</f>
-        <v>3-Riogrande</v>
-      </c>
-      <c r="E12" s="10" t="str">
+        <v>Riogrande</v>
+      </c>
+      <c r="E12" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>Bloque3 de 3-Riogrande</v>
+        <v>Bloque2 - Riogrande</v>
       </c>
     </row>
   </sheetData>
@@ -1847,13 +2110,13 @@
     <hyperlink ref="A1:D1" location="'Objetos de dominio'!A1" display="&lt;&lt;&lt;&lt;&lt;&lt; Volver al inicio" xr:uid="{73405957-2E0A-4EC9-845B-165703441F8D}"/>
     <hyperlink ref="D3" location="ConjuntoResidencial!A1" display="ConjuntoResidencial" xr:uid="{1FF70D16-FFAE-49F5-A324-336831EAEC2F}"/>
     <hyperlink ref="D4" location="ConjuntoResidencial!A4" display="1-Forest apartamentos" xr:uid="{FE6B8B9A-D67F-410F-9E6F-226B627CD379}"/>
-    <hyperlink ref="D5:D6" location="ConjuntoResidencial!A4" display="1-Forest apartamentos" xr:uid="{26734694-0972-4ADC-AA89-B0972D85EEB6}"/>
     <hyperlink ref="D7" location="ConjuntoResidencial!A5" display="ConjuntoResidencial!A5" xr:uid="{8C0CBF64-4C4C-4615-84CA-37407A122B1B}"/>
     <hyperlink ref="D8" location="ConjuntoResidencial!A4" display="ConjuntoResidencial!A4" xr:uid="{424EF75D-3021-4DCE-AC86-B7B197E2AA3F}"/>
     <hyperlink ref="D9" location="ConjuntoResidencial!A6" display="ConjuntoResidencial!A6" xr:uid="{90A0238A-B68E-43CA-A4E7-622B7D624F49}"/>
     <hyperlink ref="D10" location="ConjuntoResidencial!A8" display="ConjuntoResidencial!A8" xr:uid="{28B59E02-AAE4-463A-BA1C-AF2FB360623A}"/>
     <hyperlink ref="D11" location="ConjuntoResidencial!A7" display="ConjuntoResidencial!A7" xr:uid="{466D4C91-E5E2-4912-BD49-0C66AEDD1636}"/>
     <hyperlink ref="D12" location="ConjuntoResidencial!A6" display="ConjuntoResidencial!A6" xr:uid="{BB64C223-5AFB-4870-A3BB-24CF127D7640}"/>
+    <hyperlink ref="D5:D6" location="ConjuntoResidencial!A4" display="1-Forest apartamentos" xr:uid="{5CC81003-F511-4F2E-A2EA-670B8730565A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1861,15 +2124,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{488BF9E0-DC4F-43E4-93DE-0EE5B6337FDE}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
     <col min="2" max="2" width="21.6640625" customWidth="1"/>
     <col min="3" max="3" width="19.33203125" customWidth="1"/>
     <col min="4" max="4" width="31.44140625" customWidth="1"/>
@@ -1878,245 +2141,235 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
       <c r="E1" s="6"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>132</v>
+    <row r="2" spans="1:5" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="9">
+      <c r="A4" s="33">
         <v>1</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>55</v>
+      <c r="B4" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="C4" s="1">
         <v>102</v>
       </c>
       <c r="D4" s="3" t="str">
         <f>Zonainmueble!$E$4</f>
-        <v>Torre1 de 1-Forest apartamentos</v>
-      </c>
-      <c r="E4" s="10" t="str">
-        <f>_xlfn.CONCAT(B4," '",C4,"'"," de ",D4)</f>
-        <v>Apartamento '102' de Torre1 de 1-Forest apartamentos</v>
+        <v>Torre1 - Forest apartamentos</v>
+      </c>
+      <c r="E4" s="9" t="str">
+        <f>_xlfn.CONCAT(B4,C4," - ",D4)</f>
+        <v>Apartamento102 - Torre1 - Forest apartamentos</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+      <c r="A5" s="32">
         <v>2</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>56</v>
+      <c r="B5" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="C5" s="1">
         <v>10</v>
       </c>
       <c r="D5" s="3" t="str">
         <f>Zonainmueble!$E$5</f>
-        <v>Bloque1 de 1-Forest apartamentos</v>
-      </c>
-      <c r="E5" s="10" t="str">
-        <f t="shared" ref="E5:E13" si="0">_xlfn.CONCAT(B5," '",C5,"'"," de ",D5)</f>
-        <v>Casa '10' de Bloque1 de 1-Forest apartamentos</v>
+        <v>Bloque1 - Forest apartamentos</v>
+      </c>
+      <c r="E5" s="9" t="str">
+        <f t="shared" ref="E5:E13" si="0">_xlfn.CONCAT(B5,C5," - ",D5)</f>
+        <v>Casa10 - Bloque1 - Forest apartamentos</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+      <c r="A6" s="32">
         <v>3</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>55</v>
+      <c r="B6" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="C6" s="1">
         <v>304</v>
       </c>
       <c r="D6" s="3" t="str">
         <f>Zonainmueble!$E$6</f>
-        <v>Torre2 de 1-Forest apartamentos</v>
-      </c>
-      <c r="E6" s="10" t="str">
+        <v>Torre2 - Forest apartamentos</v>
+      </c>
+      <c r="E6" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>Apartamento '304' de Torre2 de 1-Forest apartamentos</v>
+        <v>Apartamento304 - Torre2 - Forest apartamentos</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+      <c r="A7" s="32">
         <v>4</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>56</v>
+      <c r="B7" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="C7" s="1">
         <v>11</v>
       </c>
       <c r="D7" s="3" t="str">
         <f>Zonainmueble!$E$7</f>
-        <v>Bloque2 de 2-Natural</v>
-      </c>
-      <c r="E7" s="10" t="str">
+        <v>Bloque1 - Natural</v>
+      </c>
+      <c r="E7" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>Casa '11' de Bloque2 de 2-Natural</v>
+        <v>Casa11 - Bloque1 - Natural</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+      <c r="A8" s="32">
         <v>5</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>55</v>
+      <c r="B8" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="C8" s="1">
         <v>423</v>
       </c>
-      <c r="D8" s="1" t="str">
+      <c r="D8" s="3" t="str">
         <f>Zonainmueble!E10</f>
-        <v>Bloque5 de 5-Ventus</v>
-      </c>
-      <c r="E8" s="10" t="str">
+        <v>Bloque1 - Ventus</v>
+      </c>
+      <c r="E8" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>Apartamento '423' de Bloque5 de 5-Ventus</v>
+        <v>Apartamento423 - Bloque1 - Ventus</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+      <c r="A9" s="32">
         <v>6</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>55</v>
+      <c r="B9" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="C9" s="1">
         <v>1204</v>
       </c>
-      <c r="D9" s="1" t="str">
+      <c r="D9" s="3" t="str">
         <f>Zonainmueble!E11</f>
-        <v>Torre7 de 4-Bolivar</v>
-      </c>
-      <c r="E9" s="10" t="str">
+        <v>Torre1 - Bolivar</v>
+      </c>
+      <c r="E9" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>Apartamento '1204' de Torre7 de 4-Bolivar</v>
+        <v>Apartamento1204 - Torre1 - Bolivar</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
+      <c r="A10" s="32">
         <v>7</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>56</v>
+      <c r="B10" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="C10" s="1">
         <v>5</v>
       </c>
-      <c r="D10" s="1" t="str">
+      <c r="D10" s="3" t="str">
         <f>Zonainmueble!E7</f>
-        <v>Bloque2 de 2-Natural</v>
-      </c>
-      <c r="E10" s="10" t="str">
+        <v>Bloque1 - Natural</v>
+      </c>
+      <c r="E10" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>Casa '5' de Bloque2 de 2-Natural</v>
+        <v>Casa5 - Bloque1 - Natural</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="9">
+      <c r="A11" s="33">
         <v>8</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>56</v>
+      <c r="B11" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="C11" s="1">
         <v>17</v>
       </c>
-      <c r="D11" s="1" t="str">
+      <c r="D11" s="3" t="str">
         <f>Zonainmueble!E12</f>
-        <v>Bloque3 de 3-Riogrande</v>
-      </c>
-      <c r="E11" s="10" t="str">
-        <f>_xlfn.CONCAT(B11," '",C11,"'"," de ",D11)</f>
-        <v>Casa '17' de Bloque3 de 3-Riogrande</v>
+        <v>Bloque2 - Riogrande</v>
+      </c>
+      <c r="E11" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>Casa17 - Bloque2 - Riogrande</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
+      <c r="A12" s="32">
         <v>9</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>55</v>
+      <c r="B12" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="C12" s="1">
         <v>514</v>
       </c>
-      <c r="D12" s="1" t="str">
+      <c r="D12" s="3" t="str">
         <f>Zonainmueble!E9</f>
-        <v>Bloque2 de 3-Riogrande</v>
-      </c>
-      <c r="E12" s="10" t="str">
+        <v>Bloque1 - Riogrande</v>
+      </c>
+      <c r="E12" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>Apartamento '514' de Bloque2 de 3-Riogrande</v>
+        <v>Apartamento514 - Bloque1 - Riogrande</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
+      <c r="A13" s="32">
         <v>10</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>56</v>
+      <c r="B13" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="C13" s="1">
         <v>23</v>
       </c>
-      <c r="D13" s="1" t="str">
+      <c r="D13" s="3" t="str">
         <f>Zonainmueble!E7</f>
-        <v>Bloque2 de 2-Natural</v>
-      </c>
-      <c r="E13" s="10" t="str">
+        <v>Bloque1 - Natural</v>
+      </c>
+      <c r="E13" s="9" t="str">
         <f t="shared" si="0"/>
-        <v>Casa '23' de Bloque2 de 2-Natural</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>55</v>
+        <v>Casa23 - Bloque1 - Natural</v>
       </c>
     </row>
   </sheetData>
@@ -2136,6 +2389,12 @@
     <hyperlink ref="D5" location="Zonainmueble!A5" display="Zonainmueble!A5" xr:uid="{76F4E2D4-EA20-4BEF-B57E-D77BA34B1AE3}"/>
     <hyperlink ref="D6" location="Zonainmueble!A6" display="Zonainmueble!A6" xr:uid="{0CEA0D8C-B505-47F7-9AB5-A99A020FD431}"/>
     <hyperlink ref="D7" location="Zonainmueble!A7" display="Zonainmueble!A7" xr:uid="{999A7386-D651-47BD-AAA9-41F3FB052EEF}"/>
+    <hyperlink ref="D8" location="Zonainmueble!A10" display="Zonainmueble!A10" xr:uid="{C90584D9-2151-46CD-A5AF-E1B4B5E9D67F}"/>
+    <hyperlink ref="D9" location="Zonainmueble!A11" display="Zonainmueble!A11" xr:uid="{AE440546-86BF-4D6C-9080-437D3473D64E}"/>
+    <hyperlink ref="D10" location="Zonainmueble!A7" display="Zonainmueble!A7" xr:uid="{C9D989E5-C606-4BC1-A02D-23A42FB55409}"/>
+    <hyperlink ref="D11" location="Zonainmueble!A12" display="Zonainmueble!A12" xr:uid="{62275898-A78C-4C3F-8869-87870883AC94}"/>
+    <hyperlink ref="D12" location="Zonainmueble!A9" display="Zonainmueble!A9" xr:uid="{47174CD0-D9E4-405D-BC4F-18241A565D3A}"/>
+    <hyperlink ref="D13" location="Zonainmueble!A7" display="Zonainmueble!A7" xr:uid="{188EBF7F-FB28-40C9-B97F-611DB833F18F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2145,8 +2404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F3E3BD9-49ED-471B-BA3A-A84E923CE558}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2155,14 +2414,15 @@
     <col min="3" max="3" width="24.6640625" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
     <col min="5" max="7" width="21.6640625" customWidth="1"/>
-    <col min="8" max="8" width="15" customWidth="1"/>
+    <col min="8" max="8" width="20.33203125" customWidth="1"/>
     <col min="9" max="9" width="23.6640625" customWidth="1"/>
     <col min="10" max="10" width="33.109375" customWidth="1"/>
+    <col min="11" max="11" width="22.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -2174,395 +2434,395 @@
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
     </row>
-    <row r="2" spans="1:10" s="26" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="25" t="s">
+    <row r="2" spans="1:10" s="34" customFormat="1" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="H2" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="25" t="s">
-        <v>125</v>
-      </c>
-      <c r="G2" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="H2" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" s="25" t="s">
-        <v>16</v>
+      <c r="J2" s="23" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>18</v>
+        <v>163</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="18">
+        <v>1</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="18">
+        <v>50</v>
+      </c>
+      <c r="F4" s="18">
+        <v>60</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="19" t="str">
+        <f>ConjuntoResidencial!$I$4</f>
+        <v>Forest apartamentos</v>
+      </c>
+      <c r="J4" s="20" t="str">
+        <f>_xlfn.CONCAT(B4,"-",I4)</f>
+        <v>Piscina-Forest apartamentos</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="21">
+        <v>2</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="21">
+        <v>20</v>
+      </c>
+      <c r="F5" s="21">
+        <v>120</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="19" t="str">
+        <f>ConjuntoResidencial!$I$4</f>
+        <v>Forest apartamentos</v>
+      </c>
+      <c r="J5" s="20" t="str">
+        <f>_xlfn.CONCAT(B5,"-",I5)</f>
+        <v>Gimnasio-Forest apartamentos</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="21">
+        <v>3</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="21">
+        <v>15</v>
+      </c>
+      <c r="F6" s="21">
+        <v>1</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="19" t="str">
+        <f>ConjuntoResidencial!$I$5</f>
+        <v>Natural</v>
+      </c>
+      <c r="J6" s="20" t="str">
+        <f>_xlfn.CONCAT(B6,"-",I6)</f>
+        <v>piscinaAdultos-Natural</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="A7" s="21">
+        <v>4</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" s="21">
+        <v>100</v>
+      </c>
+      <c r="F7" s="21">
+        <v>4</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="I7" s="19" t="str">
+        <f>ConjuntoResidencial!I6</f>
+        <v>Riogrande</v>
+      </c>
+      <c r="J7" s="20" t="str">
+        <f t="shared" ref="J7:J12" si="0">_xlfn.CONCAT(B7,"-",I7)</f>
+        <v>Salón de Eventos-Riogrande</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="21">
+        <v>5</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" s="21">
+        <v>22</v>
+      </c>
+      <c r="F8" s="21">
+        <v>90</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="I8" s="19" t="str">
+        <f>ConjuntoResidencial!I7</f>
+        <v>Bolivar</v>
+      </c>
+      <c r="J8" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Cancha de Fútbol-Bolivar</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="21">
+        <v>6</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9" s="21">
+        <v>20</v>
+      </c>
+      <c r="F9" s="21">
+        <v>45</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="H9" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="I9" s="19" t="str">
+        <f>ConjuntoResidencial!I5</f>
+        <v>Natural</v>
+      </c>
+      <c r="J9" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Piscina Pequeña-Natural</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="21">
+        <v>7</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" s="21">
+        <v>15</v>
+      </c>
+      <c r="F10" s="21">
+        <v>2</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="I10" s="19" t="str">
+        <f>ConjuntoResidencial!I8</f>
+        <v>Ventus</v>
+      </c>
+      <c r="J10" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Zona BBQ-Ventus</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="A11" s="21">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="19">
-        <v>1</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="19">
-        <v>50</v>
-      </c>
-      <c r="F4" s="19">
+      <c r="B11" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="E11" s="21">
+        <v>4</v>
+      </c>
+      <c r="F11" s="21">
         <v>60</v>
       </c>
-      <c r="G4" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="20" t="str">
-        <f>ConjuntoResidencial!$I$4</f>
-        <v>1-Forest apartamentos</v>
-      </c>
-      <c r="J4" s="21" t="str">
-        <f>_xlfn.CONCAT(B4,"-",I4)</f>
-        <v>Piscina-1-Forest apartamentos</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="22">
-        <v>2</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="D5" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="22">
-        <v>20</v>
-      </c>
-      <c r="F5" s="22">
-        <v>120</v>
-      </c>
-      <c r="G5" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="H5" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="20" t="str">
-        <f>ConjuntoResidencial!$I$4</f>
-        <v>1-Forest apartamentos</v>
-      </c>
-      <c r="J5" s="21" t="str">
-        <f>_xlfn.CONCAT(B5,"-",I5)</f>
-        <v>Gimnasio-1-Forest apartamentos</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="22">
-        <v>3</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="22">
-        <v>15</v>
-      </c>
-      <c r="F6" s="22">
-        <v>1</v>
-      </c>
-      <c r="G6" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" s="20" t="str">
-        <f>ConjuntoResidencial!$I$5</f>
-        <v>2-Natural</v>
-      </c>
-      <c r="J6" s="21" t="str">
-        <f>_xlfn.CONCAT(B6,"-",I6)</f>
-        <v>piscinaAdultos-2-Natural</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="A7" s="22">
-        <v>4</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="E7" s="22">
+      <c r="G11" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="H11" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="F7" s="22">
-        <v>4</v>
-      </c>
-      <c r="G7" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="H7" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="I7" s="20" t="str">
+      <c r="I11" s="19" t="str">
         <f>ConjuntoResidencial!I6</f>
-        <v>3-Riogrande</v>
-      </c>
-      <c r="J7" s="21" t="str">
-        <f t="shared" ref="J7:J12" si="0">_xlfn.CONCAT(B7,"-",I7)</f>
-        <v>Salón de Eventos-3-Riogrande</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="22">
-        <v>5</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="D8" s="23" t="s">
+        <v>Riogrande</v>
+      </c>
+      <c r="J11" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Cancha de Tenis-Riogrande</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="21">
+        <v>9</v>
+      </c>
+      <c r="B12" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="E8" s="22">
-        <v>22</v>
-      </c>
-      <c r="F8" s="22">
+      <c r="C12" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="E12" s="21">
+        <v>10</v>
+      </c>
+      <c r="F12" s="21">
         <v>90</v>
       </c>
-      <c r="G8" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="H8" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="I8" s="20" t="str">
-        <f>ConjuntoResidencial!I7</f>
-        <v>4-Bolivar</v>
-      </c>
-      <c r="J8" s="21" t="str">
+      <c r="G12" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="I12" s="19" t="str">
+        <f>ConjuntoResidencial!I4</f>
+        <v>Forest apartamentos</v>
+      </c>
+      <c r="J12" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>Cancha de Fútbol-4-Bolivar</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="22">
-        <v>6</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="E9" s="22">
-        <v>20</v>
-      </c>
-      <c r="F9" s="22">
-        <v>45</v>
-      </c>
-      <c r="G9" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="H9" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="I9" s="20" t="str">
-        <f>ConjuntoResidencial!I5</f>
-        <v>2-Natural</v>
-      </c>
-      <c r="J9" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v>Piscina Pequeña-2-Natural</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="22">
-        <v>7</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="E10" s="22">
-        <v>15</v>
-      </c>
-      <c r="F10" s="22">
-        <v>2</v>
-      </c>
-      <c r="G10" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="H10" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="I10" s="20" t="str">
-        <f>ConjuntoResidencial!I8</f>
-        <v>5-Ventus</v>
-      </c>
-      <c r="J10" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v>Zona BBQ-5-Ventus</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="A11" s="22">
-        <v>8</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="E11" s="22">
-        <v>4</v>
-      </c>
-      <c r="F11" s="22">
-        <v>60</v>
-      </c>
-      <c r="G11" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="H11" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="I11" s="20" t="str">
-        <f>ConjuntoResidencial!I6</f>
-        <v>3-Riogrande</v>
-      </c>
-      <c r="J11" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v>Cancha de Tenis-3-Riogrande</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="22">
-        <v>9</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>112</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="E12" s="22">
-        <v>10</v>
-      </c>
-      <c r="F12" s="22">
-        <v>90</v>
-      </c>
-      <c r="G12" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="H12" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="I12" s="20" t="str">
-        <f>ConjuntoResidencial!I4</f>
-        <v>1-Forest apartamentos</v>
-      </c>
-      <c r="J12" s="21" t="str">
-        <f t="shared" si="0"/>
-        <v>Sala de Juegos-1-Forest apartamentos</v>
+        <v>Sala de Juegos-Forest apartamentos</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="18"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="16"/>
-      <c r="H13" s="16"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="15"/>
+      <c r="H13" s="15"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C14" s="17"/>
-      <c r="D14" s="16"/>
-      <c r="H14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="15"/>
+      <c r="H14" s="15"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C15" s="17"/>
-      <c r="D15" s="16"/>
-      <c r="H15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="15"/>
+      <c r="H15" s="15"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="Objetos de dominio!A1" display="Objetos de dominio!A1" xr:uid="{7B936B1B-E7A7-43AE-939F-38E9A3111C59}"/>
+    <hyperlink ref="A1" location="'Objetos de dominio'!A3" display="&lt;&lt;&lt;&lt;&lt;&lt; Volver al inicio" xr:uid="{7B936B1B-E7A7-43AE-939F-38E9A3111C59}"/>
     <hyperlink ref="B1" location="Objetos de dominio!A1" display="Objetos de dominio!A1" xr:uid="{02A34D39-CC52-4C1F-9BB9-D46B63C023E8}"/>
     <hyperlink ref="J1" location="Objetos de dominio!A1" display="Objetos de dominio!A1" xr:uid="{6585A7B7-3FD0-4667-99EF-CFCC695BC978}"/>
     <hyperlink ref="I3" location="ConjuntoResidencial!A1" display="ConjuntoResidencial" xr:uid="{44382147-4BE0-4CD3-8A3E-982BD251098B}"/>

--- a/Doo-Doc/Nueva Version Victus/MuestreoDatos/ConjuntosResidenciales Muestro Datos.xlsx
+++ b/Doo-Doc/Nueva Version Victus/MuestreoDatos/ConjuntosResidenciales Muestro Datos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\DOO 2024 BD\DOO\victus-doc\Doo-Doc\Nueva Version Victus\MuestreoDatos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josez\Documents\Universidad IngeSistemas\Diseño Orientado a Objetos(DOO)\VictusProyect\victus-doc\Doo-Doc\Nueva Version Victus\MuestreoDatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{969333AD-F420-4B20-BC89-76A62CB31238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F148B6-2CD6-4E41-88DD-F5BEDF6EFCEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{46B52760-6E94-4759-BDEF-A2400BC5A0BB}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="9132" windowHeight="12336" firstSheet="5" activeTab="5" xr2:uid="{46B52760-6E94-4759-BDEF-A2400BC5A0BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Objetos de dominio" sheetId="1" r:id="rId1"/>
@@ -457,9 +457,6 @@
     <t>contactoRecepcion</t>
   </si>
   <si>
-    <t>Es un dato que representa el número de contacto de una recepcion de un conjunto residencial</t>
-  </si>
-  <si>
     <t>Es un dato que representa la descripción general que tiene el conjunto residencial .</t>
   </si>
   <si>
@@ -539,6 +536,9 @@
   </si>
   <si>
     <t>Este es le dato que representa el tiempo de uso por numero entero de un residente</t>
+  </si>
+  <si>
+    <t>Es un dato que representa el numero de contacto de la recepción del conjunto residencial.</t>
   </si>
 </sst>
 </file>
@@ -735,16 +735,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -760,6 +757,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1153,7 +1153,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3601F120-B689-4608-A7AB-FD2F4140FEAD}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -1232,8 +1232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF3124B0-BF43-4D8E-8B80-2D2432DEB873}">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1252,50 +1252,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
     </row>
-    <row r="2" spans="1:11" s="30" customFormat="1" ht="73.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
+    <row r="2" spans="1:11" s="29" customFormat="1" ht="73.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="E2" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="E2" s="28" t="s">
-        <v>150</v>
-      </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="H2" s="28" t="s">
+      <c r="H2" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="I2" s="28" t="s">
+      <c r="I2" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="J2" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="J2" s="28" t="s">
+      <c r="K2" s="27" t="s">
         <v>153</v>
-      </c>
-      <c r="K2" s="28" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -1309,16 +1309,16 @@
         <v>127</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>144</v>
-      </c>
       <c r="F3" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>142</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>30</v>
@@ -1327,10 +1327,10 @@
         <v>7</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -1344,7 +1344,7 @@
         <v>35</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E4" s="8">
         <v>1017245136</v>
@@ -1382,7 +1382,7 @@
         <v>37</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E5" s="8">
         <v>5987645832</v>
@@ -1397,7 +1397,7 @@
         <v>71</v>
       </c>
       <c r="I5" s="12" t="str">
-        <f t="shared" ref="I5:K9" si="0">D5&amp;"-"&amp;E5</f>
+        <f t="shared" ref="I5:I9" si="0">D5&amp;"-"&amp;E5</f>
         <v>cedula-5987645832</v>
       </c>
       <c r="J5" s="12">
@@ -1420,7 +1420,7 @@
         <v>68</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E6" s="8">
         <v>8574693214</v>
@@ -1458,7 +1458,7 @@
         <v>74</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E7" s="1">
         <v>5789687456</v>
@@ -1496,7 +1496,7 @@
         <v>78</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E8" s="1">
         <v>1112587693</v>
@@ -1534,7 +1534,7 @@
         <v>82</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E9" s="1">
         <v>8574693218</v>
@@ -1580,8 +1580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CCBB1F3-C6CB-4282-9EE1-3BEE3EA280EE}">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView topLeftCell="I2" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1594,81 +1594,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
     </row>
-    <row r="2" spans="1:10" s="29" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
+    <row r="2" spans="1:10" s="28" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="G2" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="H2" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="I2" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="27" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="F3" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="H3" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="26" t="s">
         <v>138</v>
-      </c>
-      <c r="H2" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="I2" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="28" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>126</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="D3" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="E3" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="F3" s="25" t="s">
-        <v>136</v>
-      </c>
-      <c r="G3" s="25" t="s">
-        <v>131</v>
-      </c>
-      <c r="H3" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="27" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -1733,7 +1733,7 @@
         <v>cedula-5987645832</v>
       </c>
       <c r="I5" s="9" t="str">
-        <f t="shared" ref="I5:J8" si="0">_xlfn.CONCAT(B5)</f>
+        <f t="shared" ref="I5:I8" si="0">_xlfn.CONCAT(B5)</f>
         <v>Natural</v>
       </c>
       <c r="J5" s="9">
@@ -1869,8 +1869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{615584B6-BB9C-4024-AABA-069882FFA83A}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1882,29 +1882,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
       <c r="E1" s="6"/>
     </row>
-    <row r="2" spans="1:5" s="31" customFormat="1" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
+    <row r="2" spans="1:5" s="30" customFormat="1" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="E2" s="28" t="s">
-        <v>155</v>
+      <c r="E2" s="27" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1931,7 +1931,7 @@
       <c r="B4" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="32">
+      <c r="C4" s="31">
         <v>1</v>
       </c>
       <c r="D4" s="3" t="str">
@@ -1950,7 +1950,7 @@
       <c r="B5" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="32">
+      <c r="C5" s="31">
         <v>1</v>
       </c>
       <c r="D5" s="3" t="str">
@@ -1969,7 +1969,7 @@
       <c r="B6" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="32">
+      <c r="C6" s="31">
         <v>2</v>
       </c>
       <c r="D6" s="3" t="str">
@@ -1988,7 +1988,7 @@
       <c r="B7" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="32">
+      <c r="C7" s="31">
         <v>1</v>
       </c>
       <c r="D7" s="3" t="str">
@@ -2007,7 +2007,7 @@
       <c r="B8" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="32">
+      <c r="C8" s="31">
         <v>1</v>
       </c>
       <c r="D8" s="3" t="str">
@@ -2026,7 +2026,7 @@
       <c r="B9" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="32">
+      <c r="C9" s="31">
         <v>1</v>
       </c>
       <c r="D9" s="3" t="str">
@@ -2045,7 +2045,7 @@
       <c r="B10" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="32">
+      <c r="C10" s="31">
         <v>1</v>
       </c>
       <c r="D10" s="3" t="str">
@@ -2064,7 +2064,7 @@
       <c r="B11" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="32">
+      <c r="C11" s="31">
         <v>1</v>
       </c>
       <c r="D11" s="3" t="str">
@@ -2083,7 +2083,7 @@
       <c r="B12" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="32">
+      <c r="C12" s="31">
         <v>2</v>
       </c>
       <c r="D12" s="3" t="str">
@@ -2126,8 +2126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{488BF9E0-DC4F-43E4-93DE-0EE5B6337FDE}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2140,29 +2140,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
       <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:5" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="E2" s="27" t="s">
         <v>157</v>
-      </c>
-      <c r="D2" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="E2" s="28" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -2173,7 +2173,7 @@
         <v>45</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>43</v>
@@ -2183,7 +2183,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="33">
+      <c r="A4" s="32">
         <v>1</v>
       </c>
       <c r="B4" s="8" t="s">
@@ -2202,7 +2202,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="32">
+      <c r="A5" s="31">
         <v>2</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -2221,7 +2221,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="32">
+      <c r="A6" s="31">
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -2240,7 +2240,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="32">
+      <c r="A7" s="31">
         <v>4</v>
       </c>
       <c r="B7" s="8" t="s">
@@ -2259,7 +2259,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="32">
+      <c r="A8" s="31">
         <v>5</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -2278,7 +2278,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="32">
+      <c r="A9" s="31">
         <v>6</v>
       </c>
       <c r="B9" s="8" t="s">
@@ -2297,7 +2297,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="32">
+      <c r="A10" s="31">
         <v>7</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -2316,7 +2316,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="33">
+      <c r="A11" s="32">
         <v>8</v>
       </c>
       <c r="B11" s="8" t="s">
@@ -2335,7 +2335,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="32">
+      <c r="A12" s="31">
         <v>9</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -2354,7 +2354,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="32">
+      <c r="A13" s="31">
         <v>10</v>
       </c>
       <c r="B13" s="8" t="s">
@@ -2404,8 +2404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F3E3BD9-49ED-471B-BA3A-A84E923CE558}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2434,7 +2434,7 @@
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
     </row>
-    <row r="2" spans="1:10" s="34" customFormat="1" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" s="33" customFormat="1" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
         <v>26</v>
       </c>
@@ -2451,10 +2451,10 @@
         <v>23</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H2" s="23" t="s">
         <v>24</v>
@@ -2474,19 +2474,19 @@
         <v>126</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>132</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>161</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>133</v>
@@ -2600,7 +2600,7 @@
         <v>piscinaAdultos-Natural</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="21">
         <v>4</v>
       </c>
@@ -2634,7 +2634,7 @@
         <v>Salón de Eventos-Riogrande</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A8" s="21">
         <v>5</v>
       </c>
@@ -2668,7 +2668,7 @@
         <v>Cancha de Fútbol-Bolivar</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A9" s="21">
         <v>6</v>
       </c>
@@ -2702,7 +2702,7 @@
         <v>Piscina Pequeña-Natural</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A10" s="21">
         <v>7</v>
       </c>
@@ -2736,7 +2736,7 @@
         <v>Zona BBQ-Ventus</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A11" s="21">
         <v>8</v>
       </c>
@@ -2770,7 +2770,7 @@
         <v>Cancha de Tenis-Riogrande</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A12" s="21">
         <v>9</v>
       </c>

--- a/Doo-Doc/Nueva Version Victus/MuestreoDatos/ConjuntosResidenciales Muestro Datos.xlsx
+++ b/Doo-Doc/Nueva Version Victus/MuestreoDatos/ConjuntosResidenciales Muestro Datos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josez\Documents\Universidad IngeSistemas\Diseño Orientado a Objetos(DOO)\VictusProyect\victus-doc\Doo-Doc\Nueva Version Victus\MuestreoDatos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\DOO 2024 BD\DOO\victus-doc\Doo-Doc\Nueva Version Victus\MuestreoDatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F148B6-2CD6-4E41-88DD-F5BEDF6EFCEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6CABA1A-8981-4CDC-8D3A-982B324C71A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="9132" windowHeight="12336" firstSheet="5" activeTab="5" xr2:uid="{46B52760-6E94-4759-BDEF-A2400BC5A0BB}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{46B52760-6E94-4759-BDEF-A2400BC5A0BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Objetos de dominio" sheetId="1" r:id="rId1"/>
@@ -20,9 +20,6 @@
     <sheet name="Inmueble" sheetId="16" r:id="rId5"/>
     <sheet name="ZonaComun" sheetId="4" r:id="rId6"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId7"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -44,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="170">
   <si>
     <t>Nombre</t>
   </si>
@@ -539,6 +536,21 @@
   </si>
   <si>
     <t>Es un dato que representa el numero de contacto de la recepción del conjunto residencial.</t>
+  </si>
+  <si>
+    <t>Objeto de dominio que representa cada una de las comunidades habitacionales organizadas en un sistema. Abarca la totalidad de los elementos que componen el conjunto, desde las unidades habitacionales individuales (inmuebles) hasta las zonas comunes.</t>
+  </si>
+  <si>
+    <t>Objeto de dominio que representa a cada una de las zonas comunes que se encuentran dentro de un conjunto residencial para que los residentes puedan reservar esos espacios y poder usarlos.</t>
+  </si>
+  <si>
+    <t>Objeto de dominio que representa el Administrador encargado de hacer la creación o gestión de las zonas comunes y la gestión de residentes y sus respectivas reservas en caso de ser necesario.</t>
+  </si>
+  <si>
+    <t>Objeto de dominio que representa una zona de inmuebles en un conjunto residencial se refiere a una agrupación de unidades habitacionales (torre, bloque, lote) que comparten una ubicación fisica y caracteristicas comunes dentro del conjunto.</t>
+  </si>
+  <si>
+    <t>Objeto de dominio que representa un imnueble dentro de una zona de inmuebles en un conjunto residencial describe las caracteristicas especificasde una unidad habitacional en el contexto de una agrupación más amplia, como una torre, bloque o área específica, que es representada por su zona inmueble.</t>
   </si>
 </sst>
 </file>
@@ -776,62 +788,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Valores"/>
-      <sheetName val="Modelo Dominio Anemico Contexto"/>
-      <sheetName val="Listado Objetos Dominio"/>
-      <sheetName val="ConjuntoResidencial"/>
-      <sheetName val="ZonaComun"/>
-      <sheetName val="Administrador"/>
-      <sheetName val="ZonaInmueble"/>
-      <sheetName val="Inmueble"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2">
-        <row r="3">
-          <cell r="B3" t="str">
-            <v>Objeto de dominio que representa cada una de las comunidades habitacionales organizadas en un sistema. Abarca la totalidad de los elementos que componen el conjunto, desde las unidades habitacionales individuales (inmuebles) hasta las zonas comunes.</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4" t="str">
-            <v>Objeto de dominio que representa a cada una de las zonas comunes que se encuentran dentro de un conjunto residencial para que los residentes puedan reservar esos espacios y poder usarlos.</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5" t="str">
-            <v>Objeto de dominio que representa el Administrador encargado de hacer la creación o gestión de las zonas comunes y la gestión de residentes y sus respectivas reservas en caso de ser necesario.</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6" t="str">
-            <v>Objeto de dominio que representa una zona de inmuebles en un conjunto residencial se refiere a una agrupación de unidades habitacionales (torre, bloque, lote) que comparten una ubicación fisica y caracteristicas comunes dentro del conjunto.</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7" t="str">
-            <v>Objeto de dominio que representa un imnueble dentro de una zona de inmuebles en un conjunto residencial describe las caracteristicas especificasde una unidad habitacional en el contexto de una agrupación más amplia, como una torre, bloque o área específica, que es representada por su zona inmueble.</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1153,17 +1109,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3601F120-B689-4608-A7AB-FD2F4140FEAD}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" customWidth="1"/>
-    <col min="2" max="2" width="58.33203125" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" customWidth="1"/>
+    <col min="2" max="2" width="58.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1171,49 +1127,44 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="63.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="str">
-        <f>'[1]Listado Objetos Dominio'!$B$3</f>
-        <v>Objeto de dominio que representa cada una de las comunidades habitacionales organizadas en un sistema. Abarca la totalidad de los elementos que componen el conjunto, desde las unidades habitacionales individuales (inmuebles) hasta las zonas comunes.</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4" t="str">
-        <f>'[1]Listado Objetos Dominio'!$B$4</f>
-        <v>Objeto de dominio que representa a cada una de las zonas comunes que se encuentran dentro de un conjunto residencial para que los residentes puedan reservar esos espacios y poder usarlos.</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B3" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="5" t="str">
-        <f>'[1]Listado Objetos Dominio'!$B$5</f>
-        <v>Objeto de dominio que representa el Administrador encargado de hacer la creación o gestión de las zonas comunes y la gestión de residentes y sus respectivas reservas en caso de ser necesario.</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B4" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="4" t="str">
-        <f>'[1]Listado Objetos Dominio'!$B$6</f>
-        <v>Objeto de dominio que representa una zona de inmuebles en un conjunto residencial se refiere a una agrupación de unidades habitacionales (torre, bloque, lote) que comparten una ubicación fisica y caracteristicas comunes dentro del conjunto.</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="72" x14ac:dyDescent="0.3">
+      <c r="B5" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="4" t="str">
-        <f>'[1]Listado Objetos Dominio'!$B$7</f>
-        <v>Objeto de dominio que representa un imnueble dentro de una zona de inmuebles en un conjunto residencial describe las caracteristicas especificasde una unidad habitacional en el contexto de una agrupación más amplia, como una torre, bloque o área específica, que es representada por su zona inmueble.</v>
+      <c r="B6" s="4" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -1236,22 +1187,22 @@
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="4" max="4" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" customWidth="1"/>
-    <col min="7" max="7" width="25.88671875" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" customWidth="1"/>
-    <col min="9" max="9" width="34.33203125" customWidth="1"/>
-    <col min="10" max="10" width="21.21875" customWidth="1"/>
-    <col min="11" max="11" width="27.109375" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" customWidth="1"/>
+    <col min="7" max="7" width="25.85546875" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="9" max="9" width="34.28515625" customWidth="1"/>
+    <col min="10" max="10" width="21.28515625" customWidth="1"/>
+    <col min="11" max="11" width="27.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
         <v>5</v>
       </c>
@@ -1263,7 +1214,7 @@
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
     </row>
-    <row r="2" spans="1:11" s="29" customFormat="1" ht="73.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="29" customFormat="1" ht="73.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>27</v>
       </c>
@@ -1298,7 +1249,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1333,7 +1284,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>1</v>
       </c>
@@ -1371,7 +1322,7 @@
         <v>carlos@example.com</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>2</v>
       </c>
@@ -1409,7 +1360,7 @@
         <v>sara@gmail.com</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>3</v>
       </c>
@@ -1447,7 +1398,7 @@
         <v>maria.gonzalez@example.com</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>4</v>
       </c>
@@ -1485,7 +1436,7 @@
         <v>laura.martinez@example.com</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>5</v>
       </c>
@@ -1523,7 +1474,7 @@
         <v>andres.lopez@example.com</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>6</v>
       </c>
@@ -1584,16 +1535,16 @@
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="6" width="21.6640625" customWidth="1"/>
+    <col min="2" max="6" width="21.7109375" customWidth="1"/>
     <col min="7" max="7" width="36" customWidth="1"/>
-    <col min="8" max="8" width="43.88671875" customWidth="1"/>
-    <col min="9" max="9" width="34.33203125" customWidth="1"/>
-    <col min="10" max="10" width="32.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="43.85546875" customWidth="1"/>
+    <col min="9" max="9" width="34.28515625" customWidth="1"/>
+    <col min="10" max="10" width="32.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
         <v>5</v>
       </c>
@@ -1607,7 +1558,7 @@
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
     </row>
-    <row r="2" spans="1:10" s="28" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" s="28" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>12</v>
       </c>
@@ -1639,7 +1590,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>6</v>
       </c>
@@ -1671,7 +1622,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>1</v>
       </c>
@@ -1706,7 +1657,7 @@
         <v>3053451564</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>2</v>
       </c>
@@ -1741,7 +1692,7 @@
         <v>3057477789</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1776,7 +1727,7 @@
         <v>3001234567</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -1811,7 +1762,7 @@
         <v>3207654321</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -1873,15 +1824,15 @@
       <selection activeCell="G10" sqref="G10:G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" customWidth="1"/>
-    <col min="5" max="5" width="37.109375" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" customWidth="1"/>
+    <col min="5" max="5" width="37.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
         <v>5</v>
       </c>
@@ -1890,7 +1841,7 @@
       <c r="D1" s="34"/>
       <c r="E1" s="6"/>
     </row>
-    <row r="2" spans="1:5" s="30" customFormat="1" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="30" customFormat="1" ht="53.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>117</v>
       </c>
@@ -1907,7 +1858,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1924,7 +1875,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>1</v>
       </c>
@@ -1943,7 +1894,7 @@
         <v>Torre1 - Forest apartamentos</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1962,7 +1913,7 @@
         <v>Bloque1 - Forest apartamentos</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1981,7 +1932,7 @@
         <v>Torre2 - Forest apartamentos</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -2000,7 +1951,7 @@
         <v>Bloque1 - Natural</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -2019,7 +1970,7 @@
         <v>Bloque1 - Forest apartamentos</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -2038,7 +1989,7 @@
         <v>Bloque1 - Riogrande</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -2057,7 +2008,7 @@
         <v>Bloque1 - Ventus</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -2076,7 +2027,7 @@
         <v>Torre1 - Bolivar</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -2130,16 +2081,16 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
-    <col min="4" max="4" width="31.44140625" customWidth="1"/>
-    <col min="5" max="5" width="49.44140625" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="4" max="4" width="31.42578125" customWidth="1"/>
+    <col min="5" max="5" width="49.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
         <v>5</v>
       </c>
@@ -2148,7 +2099,7 @@
       <c r="D1" s="34"/>
       <c r="E1" s="6"/>
     </row>
-    <row r="2" spans="1:5" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="53.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>114</v>
       </c>
@@ -2165,7 +2116,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -2182,7 +2133,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="32">
         <v>1</v>
       </c>
@@ -2201,7 +2152,7 @@
         <v>Apartamento102 - Torre1 - Forest apartamentos</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="31">
         <v>2</v>
       </c>
@@ -2220,7 +2171,7 @@
         <v>Casa10 - Bloque1 - Forest apartamentos</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="31">
         <v>3</v>
       </c>
@@ -2239,7 +2190,7 @@
         <v>Apartamento304 - Torre2 - Forest apartamentos</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="31">
         <v>4</v>
       </c>
@@ -2258,7 +2209,7 @@
         <v>Casa11 - Bloque1 - Natural</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="31">
         <v>5</v>
       </c>
@@ -2277,7 +2228,7 @@
         <v>Apartamento423 - Bloque1 - Ventus</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="31">
         <v>6</v>
       </c>
@@ -2296,7 +2247,7 @@
         <v>Apartamento1204 - Torre1 - Bolivar</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="31">
         <v>7</v>
       </c>
@@ -2315,7 +2266,7 @@
         <v>Casa5 - Bloque1 - Natural</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="32">
         <v>8</v>
       </c>
@@ -2334,7 +2285,7 @@
         <v>Casa17 - Bloque2 - Riogrande</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="31">
         <v>9</v>
       </c>
@@ -2353,7 +2304,7 @@
         <v>Apartamento514 - Bloque1 - Riogrande</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="31">
         <v>10</v>
       </c>
@@ -2404,23 +2355,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F3E3BD9-49ED-471B-BA3A-A84E923CE558}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.6640625" customWidth="1"/>
-    <col min="3" max="3" width="24.6640625" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
-    <col min="5" max="7" width="21.6640625" customWidth="1"/>
-    <col min="8" max="8" width="20.33203125" customWidth="1"/>
-    <col min="9" max="9" width="23.6640625" customWidth="1"/>
-    <col min="10" max="10" width="33.109375" customWidth="1"/>
-    <col min="11" max="11" width="22.5546875" customWidth="1"/>
+    <col min="5" max="7" width="21.7109375" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" customWidth="1"/>
+    <col min="9" max="9" width="23.7109375" customWidth="1"/>
+    <col min="10" max="10" width="33.140625" customWidth="1"/>
+    <col min="11" max="11" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>5</v>
       </c>
@@ -2434,7 +2385,7 @@
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
     </row>
-    <row r="2" spans="1:10" s="33" customFormat="1" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" s="33" customFormat="1" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>26</v>
       </c>
@@ -2466,7 +2417,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -2498,7 +2449,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18">
         <v>1</v>
       </c>
@@ -2532,7 +2483,7 @@
         <v>Piscina-Forest apartamentos</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="21">
         <v>2</v>
       </c>
@@ -2566,7 +2517,7 @@
         <v>Gimnasio-Forest apartamentos</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="59.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21">
         <v>3</v>
       </c>
@@ -2600,7 +2551,7 @@
         <v>piscinaAdultos-Natural</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="21">
         <v>4</v>
       </c>
@@ -2634,7 +2585,7 @@
         <v>Salón de Eventos-Riogrande</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="21">
         <v>5</v>
       </c>
@@ -2668,7 +2619,7 @@
         <v>Cancha de Fútbol-Bolivar</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="21">
         <v>6</v>
       </c>
@@ -2702,7 +2653,7 @@
         <v>Piscina Pequeña-Natural</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="21">
         <v>7</v>
       </c>
@@ -2736,7 +2687,7 @@
         <v>Zona BBQ-Ventus</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="21">
         <v>8</v>
       </c>
@@ -2770,7 +2721,7 @@
         <v>Cancha de Tenis-Riogrande</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" s="21">
         <v>9</v>
       </c>
@@ -2804,18 +2755,18 @@
         <v>Sala de Juegos-Forest apartamentos</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="17"/>
       <c r="C13" s="16"/>
       <c r="D13" s="15"/>
       <c r="H13" s="15"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C14" s="16"/>
       <c r="D14" s="15"/>
       <c r="H14" s="15"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C15" s="16"/>
       <c r="D15" s="15"/>
       <c r="H15" s="15"/>

--- a/Doo-Doc/Nueva Version Victus/MuestreoDatos/ConjuntosResidenciales Muestro Datos.xlsx
+++ b/Doo-Doc/Nueva Version Victus/MuestreoDatos/ConjuntosResidenciales Muestro Datos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\DOO 2024 BD\DOO\victus-doc\Doo-Doc\Nueva Version Victus\MuestreoDatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6CABA1A-8981-4CDC-8D3A-982B324C71A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFEBF107-78F3-4CB5-B512-F4A7C4CBA9A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{46B52760-6E94-4759-BDEF-A2400BC5A0BB}"/>
+    <workbookView xWindow="38295" yWindow="2220" windowWidth="10455" windowHeight="10905" firstSheet="1" activeTab="4" xr2:uid="{46B52760-6E94-4759-BDEF-A2400BC5A0BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Objetos de dominio" sheetId="1" r:id="rId1"/>
@@ -1109,7 +1109,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3601F120-B689-4608-A7AB-FD2F4140FEAD}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -1183,7 +1183,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF3124B0-BF43-4D8E-8B80-2D2432DEB873}">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
@@ -1821,7 +1821,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10:G12"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2077,7 +2077,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{488BF9E0-DC4F-43E4-93DE-0EE5B6337FDE}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -2355,7 +2355,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F3E3BD9-49ED-471B-BA3A-A84E923CE558}">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
